--- a/state_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
+++ b/state_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U150"/>
+  <dimension ref="A1:U167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,7 +1072,7 @@
         <v>0.01862</v>
       </c>
       <c r="G8" t="n">
-        <v>0.080146238172672</v>
+        <v>0.0801480061226436</v>
       </c>
       <c r="H8" t="n">
         <v>2.95853584131359</v>
@@ -1153,7 +1153,7 @@
         <v>0.01862</v>
       </c>
       <c r="G9" t="n">
-        <v>0.080146238172672</v>
+        <v>0.0801480061226436</v>
       </c>
       <c r="H9" t="n">
         <v>2.95853584131359</v>
@@ -1234,7 +1234,7 @@
         <v>0.043</v>
       </c>
       <c r="G10" t="n">
-        <v>0.23693372622451</v>
+        <v>0.236964774483053</v>
       </c>
       <c r="H10" t="n">
         <v>2.4</v>
@@ -1245,7 +1245,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>0.00222</v>
+        <v>0.00235</v>
       </c>
       <c r="M10" t="n">
         <v>0.513</v>
@@ -1315,7 +1315,7 @@
         <v>0.043</v>
       </c>
       <c r="G11" t="n">
-        <v>0.23693372622451</v>
+        <v>0.236964774483053</v>
       </c>
       <c r="H11" t="n">
         <v>2.4</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.00222</v>
+        <v>0.00235</v>
       </c>
       <c r="M11" t="n">
         <v>0.513</v>
@@ -1389,16 +1389,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0915</v>
+        <v>0.09125</v>
       </c>
       <c r="G12" t="n">
-        <v>0.39</v>
+        <v>0.389968965517241</v>
       </c>
       <c r="H12" t="n">
         <v>5.34</v>
       </c>
       <c r="I12" t="n">
-        <v>1.574</v>
+        <v>1.57408</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0915</v>
+        <v>0.09125</v>
       </c>
       <c r="G13" t="n">
-        <v>0.39</v>
+        <v>0.389968965517241</v>
       </c>
       <c r="H13" t="n">
         <v>5.34</v>
       </c>
       <c r="I13" t="n">
-        <v>1.574</v>
+        <v>1.57408</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
         <v>0.01624</v>
       </c>
       <c r="G24" t="n">
-        <v>0.087927610519187</v>
+        <v>0.0879329781663728</v>
       </c>
       <c r="H24" t="n">
         <v>2.95853584131359</v>
@@ -2441,7 +2441,7 @@
         <v>0.01624</v>
       </c>
       <c r="G25" t="n">
-        <v>0.087927610519187</v>
+        <v>0.0879329781663728</v>
       </c>
       <c r="H25" t="n">
         <v>2.95853584131359</v>
@@ -2522,7 +2522,7 @@
         <v>0.05725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.294498339381256</v>
+        <v>0.294504480069607</v>
       </c>
       <c r="H26" t="n">
         <v>2.4</v>
@@ -2603,7 +2603,7 @@
         <v>0.05725</v>
       </c>
       <c r="G27" t="n">
-        <v>0.294498339381256</v>
+        <v>0.294504480069607</v>
       </c>
       <c r="H27" t="n">
         <v>2.4</v>
@@ -2680,24 +2680,24 @@
         <v>0.1105</v>
       </c>
       <c r="G28" t="n">
-        <v>0.463374829788759</v>
+        <v>0.463377887074331</v>
       </c>
       <c r="H28" t="n">
         <v>5.34</v>
       </c>
       <c r="I28" t="n">
-        <v>1.6956</v>
+        <v>1.69584</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.0205</v>
+        <v>0.0204</v>
       </c>
       <c r="M28" t="n">
         <v>0.87488</v>
       </c>
       <c r="N28" t="n">
-        <v>1.47586</v>
+        <v>1.47603</v>
       </c>
       <c r="O28" t="n">
         <v>1784998</v>
@@ -2757,24 +2757,24 @@
         <v>0.1105</v>
       </c>
       <c r="G29" t="n">
-        <v>0.463374829788759</v>
+        <v>0.463377887074331</v>
       </c>
       <c r="H29" t="n">
         <v>5.34</v>
       </c>
       <c r="I29" t="n">
-        <v>1.6956</v>
+        <v>1.69584</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.0205</v>
+        <v>0.0204</v>
       </c>
       <c r="M29" t="n">
         <v>0.87488</v>
       </c>
       <c r="N29" t="n">
-        <v>1.47586</v>
+        <v>1.47603</v>
       </c>
       <c r="O29" t="n">
         <v>1784998</v>
@@ -3648,7 +3648,7 @@
         <v>0.008229999999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>0.165197613066571</v>
+        <v>0.165209474484746</v>
       </c>
       <c r="H40" t="n">
         <v>4.38948372272883</v>
@@ -3729,7 +3729,7 @@
         <v>0.008229999999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.165197613066571</v>
+        <v>0.165209474484746</v>
       </c>
       <c r="H41" t="n">
         <v>4.38948372272883</v>
@@ -3810,7 +3810,7 @@
         <v>0.0669</v>
       </c>
       <c r="G42" t="n">
-        <v>0.319145013505385</v>
+        <v>0.319158858830546</v>
       </c>
       <c r="H42" t="n">
         <v>2.4</v>
@@ -3891,7 +3891,7 @@
         <v>0.0669</v>
       </c>
       <c r="G43" t="n">
-        <v>0.319145013505385</v>
+        <v>0.319158858830546</v>
       </c>
       <c r="H43" t="n">
         <v>2.4</v>
@@ -3968,13 +3968,13 @@
         <v>0.126</v>
       </c>
       <c r="G44" t="n">
-        <v>0.600353529998552</v>
+        <v>0.600371287039397</v>
       </c>
       <c r="H44" t="n">
         <v>7.71</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4244</v>
+        <v>2.42452</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -3985,7 +3985,7 @@
         <v>1.06044</v>
       </c>
       <c r="N44" t="n">
-        <v>1.60512</v>
+        <v>1.60513</v>
       </c>
       <c r="O44" t="n">
         <v>1784998</v>
@@ -4045,13 +4045,13 @@
         <v>0.126</v>
       </c>
       <c r="G45" t="n">
-        <v>0.600353529998552</v>
+        <v>0.600371287039397</v>
       </c>
       <c r="H45" t="n">
         <v>7.71</v>
       </c>
       <c r="I45" t="n">
-        <v>2.4244</v>
+        <v>2.42452</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -4062,7 +4062,7 @@
         <v>1.06044</v>
       </c>
       <c r="N45" t="n">
-        <v>1.60512</v>
+        <v>1.60513</v>
       </c>
       <c r="O45" t="n">
         <v>1784998</v>
@@ -4936,7 +4936,7 @@
         <v>0.0078</v>
       </c>
       <c r="G56" t="n">
-        <v>0.209711123102259</v>
+        <v>0.209722984520433</v>
       </c>
       <c r="H56" t="n">
         <v>4.38948372272883</v>
@@ -5017,7 +5017,7 @@
         <v>0.0078</v>
       </c>
       <c r="G57" t="n">
-        <v>0.209711123102259</v>
+        <v>0.209722984520433</v>
       </c>
       <c r="H57" t="n">
         <v>4.38948372272883</v>
@@ -5098,7 +5098,7 @@
         <v>0.0308</v>
       </c>
       <c r="G58" t="n">
-        <v>0.253055072705213</v>
+        <v>0.253076559712646</v>
       </c>
       <c r="H58" t="n">
         <v>1.5406</v>
@@ -5179,7 +5179,7 @@
         <v>0.0308</v>
       </c>
       <c r="G59" t="n">
-        <v>0.253055072705213</v>
+        <v>0.253076559712646</v>
       </c>
       <c r="H59" t="n">
         <v>1.5406</v>
@@ -5253,10 +5253,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.1665</v>
+        <v>0.16645</v>
       </c>
       <c r="G60" t="n">
-        <v>0.63804995856998</v>
+        <v>0.638076644182254</v>
       </c>
       <c r="H60" t="n">
         <v>7.71</v>
@@ -5330,10 +5330,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.1665</v>
+        <v>0.16645</v>
       </c>
       <c r="G61" t="n">
-        <v>0.63804995856998</v>
+        <v>0.638076644182254</v>
       </c>
       <c r="H61" t="n">
         <v>7.71</v>
@@ -5722,7 +5722,7 @@
         <v>0.2</v>
       </c>
       <c r="G66" t="n">
-        <v>0.227804906344555</v>
+        <v>0.227820038452638</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -5965,13 +5965,13 @@
         <v>432</v>
       </c>
       <c r="G69" t="n">
-        <v>4434.31480109841</v>
+        <v>4389.82193362139</v>
       </c>
       <c r="H69" t="n">
         <v>69000</v>
       </c>
       <c r="I69" t="n">
-        <v>21888.63354</v>
+        <v>21276.91026</v>
       </c>
       <c r="J69" t="n">
         <v>43.6363636363636</v>
@@ -5986,7 +5986,7 @@
         <v>4035</v>
       </c>
       <c r="N69" t="n">
-        <v>15655.45342</v>
+        <v>15410.7641</v>
       </c>
       <c r="O69" t="n">
         <v>1784998</v>
@@ -6050,13 +6050,13 @@
         <v>432</v>
       </c>
       <c r="G70" t="n">
-        <v>4434.31480109841</v>
+        <v>4389.82193362139</v>
       </c>
       <c r="H70" t="n">
         <v>69000</v>
       </c>
       <c r="I70" t="n">
-        <v>21888.63354</v>
+        <v>21276.91026</v>
       </c>
       <c r="J70" t="n">
         <v>43.6363636363636</v>
@@ -6071,7 +6071,7 @@
         <v>4035</v>
       </c>
       <c r="N70" t="n">
-        <v>15655.45342</v>
+        <v>15410.7641</v>
       </c>
       <c r="O70" t="n">
         <v>1784998</v>
@@ -6135,13 +6135,13 @@
         <v>432</v>
       </c>
       <c r="G71" t="n">
-        <v>4434.31480109841</v>
+        <v>4389.82193362139</v>
       </c>
       <c r="H71" t="n">
         <v>69000</v>
       </c>
       <c r="I71" t="n">
-        <v>21888.63354</v>
+        <v>21276.91026</v>
       </c>
       <c r="J71" t="n">
         <v>43.6363636363636</v>
@@ -6156,7 +6156,7 @@
         <v>4035</v>
       </c>
       <c r="N71" t="n">
-        <v>15655.45342</v>
+        <v>15410.7641</v>
       </c>
       <c r="O71" t="n">
         <v>1784998</v>
@@ -6220,13 +6220,13 @@
         <v>432</v>
       </c>
       <c r="G72" t="n">
-        <v>4434.31480109841</v>
+        <v>4389.82193362139</v>
       </c>
       <c r="H72" t="n">
         <v>69000</v>
       </c>
       <c r="I72" t="n">
-        <v>21888.63354</v>
+        <v>21276.91026</v>
       </c>
       <c r="J72" t="n">
         <v>43.6363636363636</v>
@@ -6241,7 +6241,7 @@
         <v>4035</v>
       </c>
       <c r="N72" t="n">
-        <v>15655.45342</v>
+        <v>15410.7641</v>
       </c>
       <c r="O72" t="n">
         <v>1784998</v>
@@ -6305,7 +6305,7 @@
         <v>0.02818</v>
       </c>
       <c r="G73" t="n">
-        <v>0.173707784422261</v>
+        <v>0.17372354452767</v>
       </c>
       <c r="H73" t="n">
         <v>4.38948372272883</v>
@@ -6316,7 +6316,7 @@
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
-        <v>0.00453</v>
+        <v>0.00467</v>
       </c>
       <c r="M73" t="n">
         <v>0.11363</v>
@@ -6386,7 +6386,7 @@
         <v>0.02818</v>
       </c>
       <c r="G74" t="n">
-        <v>0.173707784422261</v>
+        <v>0.17372354452767</v>
       </c>
       <c r="H74" t="n">
         <v>4.38948372272883</v>
@@ -6397,7 +6397,7 @@
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
-        <v>0.00453</v>
+        <v>0.00467</v>
       </c>
       <c r="M74" t="n">
         <v>0.11363</v>
@@ -6467,7 +6467,7 @@
         <v>0.059</v>
       </c>
       <c r="G75" t="n">
-        <v>0.358141747590922</v>
+        <v>0.358168124495735</v>
       </c>
       <c r="H75" t="n">
         <v>4.02</v>
@@ -6478,7 +6478,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
-        <v>0.00311</v>
+        <v>0.00326</v>
       </c>
       <c r="M75" t="n">
         <v>0.68555</v>
@@ -6548,7 +6548,7 @@
         <v>0.059</v>
       </c>
       <c r="G76" t="n">
-        <v>0.358141747590922</v>
+        <v>0.358168124495735</v>
       </c>
       <c r="H76" t="n">
         <v>4.02</v>
@@ -6559,7 +6559,7 @@
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
-        <v>0.00311</v>
+        <v>0.00326</v>
       </c>
       <c r="M76" t="n">
         <v>0.68555</v>
@@ -6625,7 +6625,7 @@
         <v>0.25</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7014013267236729</v>
+        <v>0.701433677715268</v>
       </c>
       <c r="H77" t="n">
         <v>7.71</v>
@@ -6702,7 +6702,7 @@
         <v>0.25</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7014013267236729</v>
+        <v>0.701433677715268</v>
       </c>
       <c r="H78" t="n">
         <v>7.71</v>
@@ -7091,7 +7091,7 @@
         <v>0.175</v>
       </c>
       <c r="G83" t="n">
-        <v>0.202451772494533</v>
+        <v>0.202463943972774</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
@@ -7334,7 +7334,7 @@
         <v>510</v>
       </c>
       <c r="G86" t="n">
-        <v>6461.22803815579</v>
+        <v>6415.91122868845</v>
       </c>
       <c r="H86" t="n">
         <v>98000</v>
@@ -7355,7 +7355,7 @@
         <v>6424</v>
       </c>
       <c r="N86" t="n">
-        <v>21634.71802</v>
+        <v>19628.26564</v>
       </c>
       <c r="O86" t="n">
         <v>1784998</v>
@@ -7419,7 +7419,7 @@
         <v>510</v>
       </c>
       <c r="G87" t="n">
-        <v>6461.22803815579</v>
+        <v>6415.91122868845</v>
       </c>
       <c r="H87" t="n">
         <v>98000</v>
@@ -7440,7 +7440,7 @@
         <v>6424</v>
       </c>
       <c r="N87" t="n">
-        <v>21634.71802</v>
+        <v>19628.26564</v>
       </c>
       <c r="O87" t="n">
         <v>1784998</v>
@@ -7504,7 +7504,7 @@
         <v>510</v>
       </c>
       <c r="G88" t="n">
-        <v>6461.22803815579</v>
+        <v>6415.91122868845</v>
       </c>
       <c r="H88" t="n">
         <v>98000</v>
@@ -7525,7 +7525,7 @@
         <v>6424</v>
       </c>
       <c r="N88" t="n">
-        <v>21634.71802</v>
+        <v>19628.26564</v>
       </c>
       <c r="O88" t="n">
         <v>1784998</v>
@@ -7589,7 +7589,7 @@
         <v>510</v>
       </c>
       <c r="G89" t="n">
-        <v>6461.22803815579</v>
+        <v>6415.91122868845</v>
       </c>
       <c r="H89" t="n">
         <v>98000</v>
@@ -7610,7 +7610,7 @@
         <v>6424</v>
       </c>
       <c r="N89" t="n">
-        <v>21634.71802</v>
+        <v>19628.26564</v>
       </c>
       <c r="O89" t="n">
         <v>1784998</v>
@@ -7674,7 +7674,7 @@
         <v>0.04461</v>
       </c>
       <c r="G90" t="n">
-        <v>0.212133722137322</v>
+        <v>0.212148577729457</v>
       </c>
       <c r="H90" t="n">
         <v>4.38948372272883</v>
@@ -7755,7 +7755,7 @@
         <v>0.04461</v>
       </c>
       <c r="G91" t="n">
-        <v>0.212133722137322</v>
+        <v>0.212148577729457</v>
       </c>
       <c r="H91" t="n">
         <v>4.38948372272883</v>
@@ -7836,7 +7836,7 @@
         <v>0.132</v>
       </c>
       <c r="G92" t="n">
-        <v>0.551995247264422</v>
+        <v>0.552027907350347</v>
       </c>
       <c r="H92" t="n">
         <v>5.78</v>
@@ -7917,7 +7917,7 @@
         <v>0.132</v>
       </c>
       <c r="G93" t="n">
-        <v>0.551995247264422</v>
+        <v>0.552027907350347</v>
       </c>
       <c r="H93" t="n">
         <v>5.78</v>
@@ -7994,7 +7994,7 @@
         <v>0.395</v>
       </c>
       <c r="G94" t="n">
-        <v>0.9805754253667029</v>
+        <v>0.98062319026555</v>
       </c>
       <c r="H94" t="n">
         <v>7.71</v>
@@ -8071,7 +8071,7 @@
         <v>0.395</v>
       </c>
       <c r="G95" t="n">
-        <v>0.9805754253667029</v>
+        <v>0.98062319026555</v>
       </c>
       <c r="H95" t="n">
         <v>7.71</v>
@@ -8703,13 +8703,13 @@
         <v>520</v>
       </c>
       <c r="G103" t="n">
-        <v>10096.1964952833</v>
+        <v>7322.95458059154</v>
       </c>
       <c r="H103" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I103" t="n">
-        <v>67300</v>
+        <v>49238.89076</v>
       </c>
       <c r="J103" t="n">
         <v>48.0769230769231</v>
@@ -8724,7 +8724,7 @@
         <v>9700</v>
       </c>
       <c r="N103" t="n">
-        <v>32200</v>
+        <v>22812.22857</v>
       </c>
       <c r="O103" t="n">
         <v>1784998</v>
@@ -8788,13 +8788,13 @@
         <v>520</v>
       </c>
       <c r="G104" t="n">
-        <v>10096.1964952833</v>
+        <v>7322.95458059154</v>
       </c>
       <c r="H104" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I104" t="n">
-        <v>67300</v>
+        <v>49238.89076</v>
       </c>
       <c r="J104" t="n">
         <v>48.0769230769231</v>
@@ -8809,7 +8809,7 @@
         <v>9700</v>
       </c>
       <c r="N104" t="n">
-        <v>32200</v>
+        <v>22812.22857</v>
       </c>
       <c r="O104" t="n">
         <v>1784998</v>
@@ -8873,13 +8873,13 @@
         <v>520</v>
       </c>
       <c r="G105" t="n">
-        <v>10096.1964952833</v>
+        <v>7322.95458059154</v>
       </c>
       <c r="H105" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I105" t="n">
-        <v>67300</v>
+        <v>49238.89076</v>
       </c>
       <c r="J105" t="n">
         <v>48.0769230769231</v>
@@ -8894,7 +8894,7 @@
         <v>9700</v>
       </c>
       <c r="N105" t="n">
-        <v>32200</v>
+        <v>22812.22857</v>
       </c>
       <c r="O105" t="n">
         <v>1784998</v>
@@ -8958,13 +8958,13 @@
         <v>520</v>
       </c>
       <c r="G106" t="n">
-        <v>10096.1964952833</v>
+        <v>7322.95458059154</v>
       </c>
       <c r="H106" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I106" t="n">
-        <v>67300</v>
+        <v>49238.89076</v>
       </c>
       <c r="J106" t="n">
         <v>48.0769230769231</v>
@@ -8979,7 +8979,7 @@
         <v>9700</v>
       </c>
       <c r="N106" t="n">
-        <v>32200</v>
+        <v>22812.22857</v>
       </c>
       <c r="O106" t="n">
         <v>1784998</v>
@@ -9043,7 +9043,7 @@
         <v>0.05181</v>
       </c>
       <c r="G107" t="n">
-        <v>0.225631246257786</v>
+        <v>0.225640948685223</v>
       </c>
       <c r="H107" t="n">
         <v>4.38948372272883</v>
@@ -9124,7 +9124,7 @@
         <v>0.05181</v>
       </c>
       <c r="G108" t="n">
-        <v>0.225631246257786</v>
+        <v>0.225640948685223</v>
       </c>
       <c r="H108" t="n">
         <v>4.38948372272883</v>
@@ -9205,7 +9205,7 @@
         <v>0.139</v>
       </c>
       <c r="G109" t="n">
-        <v>0.5535866635305839</v>
+        <v>0.553623209895195</v>
       </c>
       <c r="H109" t="n">
         <v>5.78</v>
@@ -9286,7 +9286,7 @@
         <v>0.139</v>
       </c>
       <c r="G110" t="n">
-        <v>0.5535866635305839</v>
+        <v>0.553623209895195</v>
       </c>
       <c r="H110" t="n">
         <v>5.78</v>
@@ -9363,7 +9363,7 @@
         <v>0.395</v>
       </c>
       <c r="G111" t="n">
-        <v>0.999198708501038</v>
+        <v>0.9992237466159331</v>
       </c>
       <c r="H111" t="n">
         <v>7.71</v>
@@ -9440,7 +9440,7 @@
         <v>0.395</v>
       </c>
       <c r="G112" t="n">
-        <v>0.999198708501038</v>
+        <v>0.9992237466159331</v>
       </c>
       <c r="H112" t="n">
         <v>7.71</v>
@@ -10072,13 +10072,13 @@
         <v>490</v>
       </c>
       <c r="G120" t="n">
-        <v>10301.6243550947</v>
+        <v>7417.4527638152</v>
       </c>
       <c r="H120" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I120" t="n">
-        <v>69000</v>
+        <v>52000</v>
       </c>
       <c r="J120" t="n">
         <v>46</v>
@@ -10093,7 +10093,7 @@
         <v>9700</v>
       </c>
       <c r="N120" t="n">
-        <v>37000</v>
+        <v>23194.45378</v>
       </c>
       <c r="O120" t="n">
         <v>1784998</v>
@@ -10157,13 +10157,13 @@
         <v>490</v>
       </c>
       <c r="G121" t="n">
-        <v>10301.6243550947</v>
+        <v>7417.4527638152</v>
       </c>
       <c r="H121" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I121" t="n">
-        <v>69000</v>
+        <v>52000</v>
       </c>
       <c r="J121" t="n">
         <v>46</v>
@@ -10178,7 +10178,7 @@
         <v>9700</v>
       </c>
       <c r="N121" t="n">
-        <v>37000</v>
+        <v>23194.45378</v>
       </c>
       <c r="O121" t="n">
         <v>1784998</v>
@@ -10242,13 +10242,13 @@
         <v>490</v>
       </c>
       <c r="G122" t="n">
-        <v>10301.6243550947</v>
+        <v>7417.4527638152</v>
       </c>
       <c r="H122" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I122" t="n">
-        <v>69000</v>
+        <v>52000</v>
       </c>
       <c r="J122" t="n">
         <v>46</v>
@@ -10263,7 +10263,7 @@
         <v>9700</v>
       </c>
       <c r="N122" t="n">
-        <v>37000</v>
+        <v>23194.45378</v>
       </c>
       <c r="O122" t="n">
         <v>1784998</v>
@@ -10327,13 +10327,13 @@
         <v>490</v>
       </c>
       <c r="G123" t="n">
-        <v>10301.6243550947</v>
+        <v>7417.4527638152</v>
       </c>
       <c r="H123" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I123" t="n">
-        <v>69000</v>
+        <v>52000</v>
       </c>
       <c r="J123" t="n">
         <v>46</v>
@@ -10348,7 +10348,7 @@
         <v>9700</v>
       </c>
       <c r="N123" t="n">
-        <v>37000</v>
+        <v>23194.45378</v>
       </c>
       <c r="O123" t="n">
         <v>1784998</v>
@@ -10412,7 +10412,7 @@
         <v>0.05305</v>
       </c>
       <c r="G124" t="n">
-        <v>0.133413539910852</v>
+        <v>0.133415878959725</v>
       </c>
       <c r="H124" t="n">
         <v>0.853013204165481</v>
@@ -10493,7 +10493,7 @@
         <v>0.05305</v>
       </c>
       <c r="G125" t="n">
-        <v>0.133413539910852</v>
+        <v>0.133415878959725</v>
       </c>
       <c r="H125" t="n">
         <v>0.853013204165481</v>
@@ -10574,7 +10574,7 @@
         <v>0.1365</v>
       </c>
       <c r="G126" t="n">
-        <v>0.537254563321748</v>
+        <v>0.5372817609217529</v>
       </c>
       <c r="H126" t="n">
         <v>5.78</v>
@@ -10655,7 +10655,7 @@
         <v>0.1365</v>
       </c>
       <c r="G127" t="n">
-        <v>0.537254563321748</v>
+        <v>0.5372817609217529</v>
       </c>
       <c r="H127" t="n">
         <v>5.78</v>
@@ -10732,7 +10732,7 @@
         <v>0.395</v>
       </c>
       <c r="G128" t="n">
-        <v>0.864905505797662</v>
+        <v>0.86491520400267</v>
       </c>
       <c r="H128" t="n">
         <v>6.39</v>
@@ -10809,7 +10809,7 @@
         <v>0.395</v>
       </c>
       <c r="G129" t="n">
-        <v>0.864905505797662</v>
+        <v>0.86491520400267</v>
       </c>
       <c r="H129" t="n">
         <v>6.39</v>
@@ -11441,13 +11441,13 @@
         <v>845</v>
       </c>
       <c r="G137" t="n">
-        <v>9320.43951640723</v>
+        <v>6185.4703954513</v>
       </c>
       <c r="H137" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I137" t="n">
-        <v>61200</v>
+        <v>29911.12605</v>
       </c>
       <c r="J137" t="n">
         <v>54.3478260869565</v>
@@ -11462,7 +11462,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N137" t="n">
-        <v>19832.39483</v>
+        <v>18485.72001</v>
       </c>
       <c r="O137" t="n">
         <v>1784998</v>
@@ -11526,13 +11526,13 @@
         <v>845</v>
       </c>
       <c r="G138" t="n">
-        <v>9320.43951640723</v>
+        <v>6185.4703954513</v>
       </c>
       <c r="H138" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I138" t="n">
-        <v>61200</v>
+        <v>29911.12605</v>
       </c>
       <c r="J138" t="n">
         <v>54.3478260869565</v>
@@ -11547,7 +11547,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N138" t="n">
-        <v>19832.39483</v>
+        <v>18485.72001</v>
       </c>
       <c r="O138" t="n">
         <v>1784998</v>
@@ -11611,13 +11611,13 @@
         <v>845</v>
       </c>
       <c r="G139" t="n">
-        <v>9320.43951640723</v>
+        <v>6185.4703954513</v>
       </c>
       <c r="H139" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I139" t="n">
-        <v>61200</v>
+        <v>29911.12605</v>
       </c>
       <c r="J139" t="n">
         <v>54.3478260869565</v>
@@ -11632,7 +11632,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N139" t="n">
-        <v>19832.39483</v>
+        <v>18485.72001</v>
       </c>
       <c r="O139" t="n">
         <v>1784998</v>
@@ -11696,13 +11696,13 @@
         <v>845</v>
       </c>
       <c r="G140" t="n">
-        <v>9320.43951640723</v>
+        <v>6185.4703954513</v>
       </c>
       <c r="H140" t="n">
-        <v>169815.810325509</v>
+        <v>98000</v>
       </c>
       <c r="I140" t="n">
-        <v>61200</v>
+        <v>29911.12605</v>
       </c>
       <c r="J140" t="n">
         <v>54.3478260869565</v>
@@ -11717,7 +11717,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N140" t="n">
-        <v>19832.39483</v>
+        <v>18485.72001</v>
       </c>
       <c r="O140" t="n">
         <v>1784998</v>
@@ -11781,7 +11781,7 @@
         <v>0.03865</v>
       </c>
       <c r="G141" t="n">
-        <v>0.275302702899012</v>
+        <v>0.275305270147775</v>
       </c>
       <c r="H141" t="n">
         <v>8.093624628922971</v>
@@ -11862,7 +11862,7 @@
         <v>0.03865</v>
       </c>
       <c r="G142" t="n">
-        <v>0.275302702899012</v>
+        <v>0.275305270147775</v>
       </c>
       <c r="H142" t="n">
         <v>8.093624628922971</v>
@@ -11943,7 +11943,7 @@
         <v>0.194</v>
       </c>
       <c r="G143" t="n">
-        <v>0.658841289866245</v>
+        <v>0.658859286200738</v>
       </c>
       <c r="H143" t="n">
         <v>5.78</v>
@@ -12024,7 +12024,7 @@
         <v>0.194</v>
       </c>
       <c r="G144" t="n">
-        <v>0.658841289866245</v>
+        <v>0.658859286200738</v>
       </c>
       <c r="H144" t="n">
         <v>5.78</v>
@@ -12101,7 +12101,7 @@
         <v>0.419</v>
       </c>
       <c r="G145" t="n">
-        <v>1.33167989760615</v>
+        <v>1.33169043913334</v>
       </c>
       <c r="H145" t="n">
         <v>21.43</v>
@@ -12178,7 +12178,7 @@
         <v>0.419</v>
       </c>
       <c r="G146" t="n">
-        <v>1.33167989760615</v>
+        <v>1.33169043913334</v>
       </c>
       <c r="H146" t="n">
         <v>21.43</v>
@@ -12537,6 +12537,1375 @@
         </is>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 2)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.14121875</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.327</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.2472</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.2106</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.22188</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P151" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.171697674418605</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0.16818</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.24442</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P152" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.171697674418605</v>
+      </c>
+      <c r="H153" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.3232</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0.16818</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.24442</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P153" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G154" t="n">
+        <v>13622.2426009671</v>
+      </c>
+      <c r="H154" t="n">
+        <v>241960</v>
+      </c>
+      <c r="I154" t="n">
+        <v>78935.5</v>
+      </c>
+      <c r="J154" t="n">
+        <v>62.7906976744186</v>
+      </c>
+      <c r="K154" t="n">
+        <v>69.7674418604651</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2742</v>
+      </c>
+      <c r="M154" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N154" t="n">
+        <v>61751.6</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G155" t="n">
+        <v>13622.2426009671</v>
+      </c>
+      <c r="H155" t="n">
+        <v>241960</v>
+      </c>
+      <c r="I155" t="n">
+        <v>78935.5</v>
+      </c>
+      <c r="J155" t="n">
+        <v>62.7906976744186</v>
+      </c>
+      <c r="K155" t="n">
+        <v>69.7674418604651</v>
+      </c>
+      <c r="L155" t="n">
+        <v>2742</v>
+      </c>
+      <c r="M155" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N155" t="n">
+        <v>61751.6</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P155" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G156" t="n">
+        <v>13622.2426009671</v>
+      </c>
+      <c r="H156" t="n">
+        <v>241960</v>
+      </c>
+      <c r="I156" t="n">
+        <v>78935.5</v>
+      </c>
+      <c r="J156" t="n">
+        <v>62.7906976744186</v>
+      </c>
+      <c r="K156" t="n">
+        <v>69.7674418604651</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2742</v>
+      </c>
+      <c r="M156" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N156" t="n">
+        <v>61751.6</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P156" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>1379</v>
+      </c>
+      <c r="G157" t="n">
+        <v>13622.2426009671</v>
+      </c>
+      <c r="H157" t="n">
+        <v>241960</v>
+      </c>
+      <c r="I157" t="n">
+        <v>78935.5</v>
+      </c>
+      <c r="J157" t="n">
+        <v>62.7906976744186</v>
+      </c>
+      <c r="K157" t="n">
+        <v>69.7674418604651</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2742</v>
+      </c>
+      <c r="M157" t="n">
+        <v>9700</v>
+      </c>
+      <c r="N157" t="n">
+        <v>61751.6</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P157" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.03861</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.288846779204996</v>
+      </c>
+      <c r="H158" t="n">
+        <v>8.093624628922971</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.6683</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>0.03745</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.11794</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.29369</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P158" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.03861</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.288846779204996</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8.093624628922971</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.6683</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>0.03745</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.11794</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.29369</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P159" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.496375992136667</v>
+      </c>
+      <c r="H160" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="I160" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.69202</v>
+      </c>
+      <c r="N160" t="n">
+        <v>1.2702</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P160" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.496375992136667</v>
+      </c>
+      <c r="H161" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="I161" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0.69202</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1.2702</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P161" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.17923255813953</v>
+      </c>
+      <c r="H162" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="I162" t="n">
+        <v>4.28725</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.1352</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1.89822</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P162" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.17923255813953</v>
+      </c>
+      <c r="H163" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.28725</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.1352</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1.89822</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P163" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2.48023255813954</v>
+      </c>
+      <c r="H164" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="I164" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3.0966</v>
+      </c>
+      <c r="N164" t="n">
+        <v>4.3902</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2.48023255813954</v>
+      </c>
+      <c r="H165" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="I165" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>2.555</v>
+      </c>
+      <c r="M165" t="n">
+        <v>3.0966</v>
+      </c>
+      <c r="N165" t="n">
+        <v>4.3902</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P165" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.47246511627907</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.51418</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.69436</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Unnamed Trib of Waipu at us Ratana STP</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.47246511627907</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.499</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.51418</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.69436</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1784998</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5565536</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Turakina</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Tura_1c</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
+++ b/state_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
@@ -5965,13 +5965,13 @@
         <v>432</v>
       </c>
       <c r="G69" t="n">
-        <v>4389.82193362139</v>
+        <v>4327.35612694936</v>
       </c>
       <c r="H69" t="n">
         <v>69000</v>
       </c>
       <c r="I69" t="n">
-        <v>21276.91026</v>
+        <v>20418.00541</v>
       </c>
       <c r="J69" t="n">
         <v>43.6363636363636</v>
@@ -5986,7 +5986,7 @@
         <v>4035</v>
       </c>
       <c r="N69" t="n">
-        <v>15410.7641</v>
+        <v>15067.20217</v>
       </c>
       <c r="O69" t="n">
         <v>1784998</v>
@@ -6050,13 +6050,13 @@
         <v>432</v>
       </c>
       <c r="G70" t="n">
-        <v>4389.82193362139</v>
+        <v>4327.35612694936</v>
       </c>
       <c r="H70" t="n">
         <v>69000</v>
       </c>
       <c r="I70" t="n">
-        <v>21276.91026</v>
+        <v>20418.00541</v>
       </c>
       <c r="J70" t="n">
         <v>43.6363636363636</v>
@@ -6071,7 +6071,7 @@
         <v>4035</v>
       </c>
       <c r="N70" t="n">
-        <v>15410.7641</v>
+        <v>15067.20217</v>
       </c>
       <c r="O70" t="n">
         <v>1784998</v>
@@ -6135,13 +6135,13 @@
         <v>432</v>
       </c>
       <c r="G71" t="n">
-        <v>4389.82193362139</v>
+        <v>4327.35612694936</v>
       </c>
       <c r="H71" t="n">
         <v>69000</v>
       </c>
       <c r="I71" t="n">
-        <v>21276.91026</v>
+        <v>20418.00541</v>
       </c>
       <c r="J71" t="n">
         <v>43.6363636363636</v>
@@ -6156,7 +6156,7 @@
         <v>4035</v>
       </c>
       <c r="N71" t="n">
-        <v>15410.7641</v>
+        <v>15067.20217</v>
       </c>
       <c r="O71" t="n">
         <v>1784998</v>
@@ -6220,13 +6220,13 @@
         <v>432</v>
       </c>
       <c r="G72" t="n">
-        <v>4389.82193362139</v>
+        <v>4327.35612694936</v>
       </c>
       <c r="H72" t="n">
         <v>69000</v>
       </c>
       <c r="I72" t="n">
-        <v>21276.91026</v>
+        <v>20418.00541</v>
       </c>
       <c r="J72" t="n">
         <v>43.6363636363636</v>
@@ -6241,7 +6241,7 @@
         <v>4035</v>
       </c>
       <c r="N72" t="n">
-        <v>15410.7641</v>
+        <v>15067.20217</v>
       </c>
       <c r="O72" t="n">
         <v>1784998</v>
@@ -7334,7 +7334,7 @@
         <v>510</v>
       </c>
       <c r="G86" t="n">
-        <v>6415.91122868845</v>
+        <v>6352.28864781879</v>
       </c>
       <c r="H86" t="n">
         <v>98000</v>
@@ -7355,7 +7355,7 @@
         <v>6424</v>
       </c>
       <c r="N86" t="n">
-        <v>19628.26564</v>
+        <v>16811.05776</v>
       </c>
       <c r="O86" t="n">
         <v>1784998</v>
@@ -7419,7 +7419,7 @@
         <v>510</v>
       </c>
       <c r="G87" t="n">
-        <v>6415.91122868845</v>
+        <v>6352.28864781879</v>
       </c>
       <c r="H87" t="n">
         <v>98000</v>
@@ -7440,7 +7440,7 @@
         <v>6424</v>
       </c>
       <c r="N87" t="n">
-        <v>19628.26564</v>
+        <v>16811.05776</v>
       </c>
       <c r="O87" t="n">
         <v>1784998</v>
@@ -7504,7 +7504,7 @@
         <v>510</v>
       </c>
       <c r="G88" t="n">
-        <v>6415.91122868845</v>
+        <v>6352.28864781879</v>
       </c>
       <c r="H88" t="n">
         <v>98000</v>
@@ -7525,7 +7525,7 @@
         <v>6424</v>
       </c>
       <c r="N88" t="n">
-        <v>19628.26564</v>
+        <v>16811.05776</v>
       </c>
       <c r="O88" t="n">
         <v>1784998</v>
@@ -7589,7 +7589,7 @@
         <v>510</v>
       </c>
       <c r="G89" t="n">
-        <v>6415.91122868845</v>
+        <v>6352.28864781879</v>
       </c>
       <c r="H89" t="n">
         <v>98000</v>
@@ -7610,7 +7610,7 @@
         <v>6424</v>
       </c>
       <c r="N89" t="n">
-        <v>19628.26564</v>
+        <v>16811.05776</v>
       </c>
       <c r="O89" t="n">
         <v>1784998</v>
@@ -8703,13 +8703,13 @@
         <v>520</v>
       </c>
       <c r="G103" t="n">
-        <v>7322.95458059154</v>
+        <v>7489.86249778416</v>
       </c>
       <c r="H103" t="n">
         <v>98000</v>
       </c>
       <c r="I103" t="n">
-        <v>49238.89076</v>
+        <v>50332.64557</v>
       </c>
       <c r="J103" t="n">
         <v>48.0769230769231</v>
@@ -8724,7 +8724,7 @@
         <v>9700</v>
       </c>
       <c r="N103" t="n">
-        <v>22812.22857</v>
+        <v>26530.99493</v>
       </c>
       <c r="O103" t="n">
         <v>1784998</v>
@@ -8788,13 +8788,13 @@
         <v>520</v>
       </c>
       <c r="G104" t="n">
-        <v>7322.95458059154</v>
+        <v>7489.86249778416</v>
       </c>
       <c r="H104" t="n">
         <v>98000</v>
       </c>
       <c r="I104" t="n">
-        <v>49238.89076</v>
+        <v>50332.64557</v>
       </c>
       <c r="J104" t="n">
         <v>48.0769230769231</v>
@@ -8809,7 +8809,7 @@
         <v>9700</v>
       </c>
       <c r="N104" t="n">
-        <v>22812.22857</v>
+        <v>26530.99493</v>
       </c>
       <c r="O104" t="n">
         <v>1784998</v>
@@ -8873,13 +8873,13 @@
         <v>520</v>
       </c>
       <c r="G105" t="n">
-        <v>7322.95458059154</v>
+        <v>7489.86249778416</v>
       </c>
       <c r="H105" t="n">
         <v>98000</v>
       </c>
       <c r="I105" t="n">
-        <v>49238.89076</v>
+        <v>50332.64557</v>
       </c>
       <c r="J105" t="n">
         <v>48.0769230769231</v>
@@ -8894,7 +8894,7 @@
         <v>9700</v>
       </c>
       <c r="N105" t="n">
-        <v>22812.22857</v>
+        <v>26530.99493</v>
       </c>
       <c r="O105" t="n">
         <v>1784998</v>
@@ -8958,13 +8958,13 @@
         <v>520</v>
       </c>
       <c r="G106" t="n">
-        <v>7322.95458059154</v>
+        <v>7489.86249778416</v>
       </c>
       <c r="H106" t="n">
         <v>98000</v>
       </c>
       <c r="I106" t="n">
-        <v>49238.89076</v>
+        <v>50332.64557</v>
       </c>
       <c r="J106" t="n">
         <v>48.0769230769231</v>
@@ -8979,7 +8979,7 @@
         <v>9700</v>
       </c>
       <c r="N106" t="n">
-        <v>22812.22857</v>
+        <v>26530.99493</v>
       </c>
       <c r="O106" t="n">
         <v>1784998</v>
@@ -10072,7 +10072,7 @@
         <v>490</v>
       </c>
       <c r="G120" t="n">
-        <v>7417.4527638152</v>
+        <v>7591.03699769553</v>
       </c>
       <c r="H120" t="n">
         <v>98000</v>
@@ -10093,7 +10093,7 @@
         <v>9700</v>
       </c>
       <c r="N120" t="n">
-        <v>23194.45378</v>
+        <v>28663.22784</v>
       </c>
       <c r="O120" t="n">
         <v>1784998</v>
@@ -10157,7 +10157,7 @@
         <v>490</v>
       </c>
       <c r="G121" t="n">
-        <v>7417.4527638152</v>
+        <v>7591.03699769553</v>
       </c>
       <c r="H121" t="n">
         <v>98000</v>
@@ -10178,7 +10178,7 @@
         <v>9700</v>
       </c>
       <c r="N121" t="n">
-        <v>23194.45378</v>
+        <v>28663.22784</v>
       </c>
       <c r="O121" t="n">
         <v>1784998</v>
@@ -10242,7 +10242,7 @@
         <v>490</v>
       </c>
       <c r="G122" t="n">
-        <v>7417.4527638152</v>
+        <v>7591.03699769553</v>
       </c>
       <c r="H122" t="n">
         <v>98000</v>
@@ -10263,7 +10263,7 @@
         <v>9700</v>
       </c>
       <c r="N122" t="n">
-        <v>23194.45378</v>
+        <v>28663.22784</v>
       </c>
       <c r="O122" t="n">
         <v>1784998</v>
@@ -10327,7 +10327,7 @@
         <v>490</v>
       </c>
       <c r="G123" t="n">
-        <v>7417.4527638152</v>
+        <v>7591.03699769553</v>
       </c>
       <c r="H123" t="n">
         <v>98000</v>
@@ -10348,7 +10348,7 @@
         <v>9700</v>
       </c>
       <c r="N123" t="n">
-        <v>23194.45378</v>
+        <v>28663.22784</v>
       </c>
       <c r="O123" t="n">
         <v>1784998</v>
@@ -11441,13 +11441,13 @@
         <v>845</v>
       </c>
       <c r="G137" t="n">
-        <v>6185.4703954513</v>
+        <v>6374.14891053862</v>
       </c>
       <c r="H137" t="n">
         <v>98000</v>
       </c>
       <c r="I137" t="n">
-        <v>29911.12605</v>
+        <v>38661.16454</v>
       </c>
       <c r="J137" t="n">
         <v>54.3478260869565</v>
@@ -11462,7 +11462,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N137" t="n">
-        <v>18485.72001</v>
+        <v>16621.40582</v>
       </c>
       <c r="O137" t="n">
         <v>1784998</v>
@@ -11526,13 +11526,13 @@
         <v>845</v>
       </c>
       <c r="G138" t="n">
-        <v>6185.4703954513</v>
+        <v>6374.14891053862</v>
       </c>
       <c r="H138" t="n">
         <v>98000</v>
       </c>
       <c r="I138" t="n">
-        <v>29911.12605</v>
+        <v>38661.16454</v>
       </c>
       <c r="J138" t="n">
         <v>54.3478260869565</v>
@@ -11547,7 +11547,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N138" t="n">
-        <v>18485.72001</v>
+        <v>16621.40582</v>
       </c>
       <c r="O138" t="n">
         <v>1784998</v>
@@ -11611,13 +11611,13 @@
         <v>845</v>
       </c>
       <c r="G139" t="n">
-        <v>6185.4703954513</v>
+        <v>6374.14891053862</v>
       </c>
       <c r="H139" t="n">
         <v>98000</v>
       </c>
       <c r="I139" t="n">
-        <v>29911.12605</v>
+        <v>38661.16454</v>
       </c>
       <c r="J139" t="n">
         <v>54.3478260869565</v>
@@ -11632,7 +11632,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N139" t="n">
-        <v>18485.72001</v>
+        <v>16621.40582</v>
       </c>
       <c r="O139" t="n">
         <v>1784998</v>
@@ -11696,13 +11696,13 @@
         <v>845</v>
       </c>
       <c r="G140" t="n">
-        <v>6185.4703954513</v>
+        <v>6374.14891053862</v>
       </c>
       <c r="H140" t="n">
         <v>98000</v>
       </c>
       <c r="I140" t="n">
-        <v>29911.12605</v>
+        <v>38661.16454</v>
       </c>
       <c r="J140" t="n">
         <v>54.3478260869565</v>
@@ -11717,7 +11717,7 @@
         <v>9109.040000000001</v>
       </c>
       <c r="N140" t="n">
-        <v>18485.72001</v>
+        <v>16621.40582</v>
       </c>
       <c r="O140" t="n">
         <v>1784998</v>
@@ -12810,7 +12810,7 @@
         <v>1379</v>
       </c>
       <c r="G154" t="n">
-        <v>13622.2426009671</v>
+        <v>13903.9828581991</v>
       </c>
       <c r="H154" t="n">
         <v>241960</v>
@@ -12895,7 +12895,7 @@
         <v>1379</v>
       </c>
       <c r="G155" t="n">
-        <v>13622.2426009671</v>
+        <v>13903.9828581991</v>
       </c>
       <c r="H155" t="n">
         <v>241960</v>
@@ -12980,7 +12980,7 @@
         <v>1379</v>
       </c>
       <c r="G156" t="n">
-        <v>13622.2426009671</v>
+        <v>13903.9828581991</v>
       </c>
       <c r="H156" t="n">
         <v>241960</v>
@@ -13065,7 +13065,7 @@
         <v>1379</v>
       </c>
       <c r="G157" t="n">
-        <v>13622.2426009671</v>
+        <v>13903.9828581991</v>
       </c>
       <c r="H157" t="n">
         <v>241960</v>

--- a/state_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
+++ b/state_results/Rivers/UnnamedTribofWaipuatusRatanaSTP_b4a12c7e22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="68">
   <si>
     <t>site name</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>RepSite</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U167"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +660,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>0.059</v>
@@ -687,19 +690,19 @@
         <v>5565536</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -716,7 +719,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>0.059</v>
@@ -746,19 +749,19 @@
         <v>5565536</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -775,13 +778,13 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>604.5</v>
       </c>
       <c r="G4">
-        <v>5474.96551724138</v>
+        <v>5474.96896551724</v>
       </c>
       <c r="H4">
         <v>92000</v>
@@ -796,7 +799,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L4">
-        <v>614</v>
+        <v>520</v>
       </c>
       <c r="M4">
         <v>7262.8</v>
@@ -811,19 +814,19 @@
         <v>5565536</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -840,13 +843,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5">
         <v>604.5</v>
       </c>
       <c r="G5">
-        <v>5474.96551724138</v>
+        <v>5474.96896551724</v>
       </c>
       <c r="H5">
         <v>92000</v>
@@ -861,7 +864,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L5">
-        <v>614</v>
+        <v>520</v>
       </c>
       <c r="M5">
         <v>7262.8</v>
@@ -876,19 +879,19 @@
         <v>5565536</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -905,13 +908,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>604.5</v>
       </c>
       <c r="G6">
-        <v>5474.96551724138</v>
+        <v>5474.96896551724</v>
       </c>
       <c r="H6">
         <v>92000</v>
@@ -926,7 +929,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L6">
-        <v>614</v>
+        <v>520</v>
       </c>
       <c r="M6">
         <v>7262.8</v>
@@ -941,19 +944,19 @@
         <v>5565536</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -970,13 +973,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>604.5</v>
       </c>
       <c r="G7">
-        <v>5474.96551724138</v>
+        <v>5474.96896551724</v>
       </c>
       <c r="H7">
         <v>92000</v>
@@ -991,7 +994,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L7">
-        <v>614</v>
+        <v>520</v>
       </c>
       <c r="M7">
         <v>7262.8</v>
@@ -1006,19 +1009,19 @@
         <v>5565536</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1035,13 +1038,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8">
         <v>0.01862</v>
       </c>
       <c r="G8">
-        <v>0.0801480061226436</v>
+        <v>0.080148636102163</v>
       </c>
       <c r="H8">
         <v>2.95853584131359</v>
@@ -1050,7 +1053,7 @@
         <v>0.11573</v>
       </c>
       <c r="L8">
-        <v>0.00741</v>
+        <v>0.00743</v>
       </c>
       <c r="M8">
         <v>0.05433</v>
@@ -1065,19 +1068,19 @@
         <v>5565536</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1094,13 +1097,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F9">
         <v>0.01862</v>
       </c>
       <c r="G9">
-        <v>0.0801480061226436</v>
+        <v>0.080148636102163</v>
       </c>
       <c r="H9">
         <v>2.95853584131359</v>
@@ -1109,7 +1112,7 @@
         <v>0.11573</v>
       </c>
       <c r="L9">
-        <v>0.00741</v>
+        <v>0.00743</v>
       </c>
       <c r="M9">
         <v>0.05433</v>
@@ -1124,19 +1127,19 @@
         <v>5565536</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,13 +1156,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>0.043</v>
       </c>
       <c r="G10">
-        <v>0.236964774483053</v>
+        <v>0.236860968068774</v>
       </c>
       <c r="H10">
         <v>2.4</v>
@@ -1168,7 +1171,7 @@
         <v>1.29264</v>
       </c>
       <c r="L10">
-        <v>0.00235</v>
+        <v>0.00418</v>
       </c>
       <c r="M10">
         <v>0.513</v>
@@ -1183,19 +1186,19 @@
         <v>5565536</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1212,13 +1215,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11">
         <v>0.043</v>
       </c>
       <c r="G11">
-        <v>0.236964774483053</v>
+        <v>0.236860968068774</v>
       </c>
       <c r="H11">
         <v>2.4</v>
@@ -1227,7 +1230,7 @@
         <v>1.29264</v>
       </c>
       <c r="L11">
-        <v>0.00235</v>
+        <v>0.00418</v>
       </c>
       <c r="M11">
         <v>0.513</v>
@@ -1242,19 +1245,19 @@
         <v>5565536</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1268,7 +1271,7 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F12">
         <v>0.09125</v>
@@ -1283,7 +1286,7 @@
         <v>1.57408</v>
       </c>
       <c r="L12">
-        <v>0.022</v>
+        <v>0.03</v>
       </c>
       <c r="M12">
         <v>0.613</v>
@@ -1298,19 +1301,19 @@
         <v>5565536</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1324,7 +1327,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F13">
         <v>0.09125</v>
@@ -1339,7 +1342,7 @@
         <v>1.57408</v>
       </c>
       <c r="L13">
-        <v>0.022</v>
+        <v>0.03</v>
       </c>
       <c r="M13">
         <v>0.613</v>
@@ -1354,19 +1357,19 @@
         <v>5565536</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,7 +1383,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14">
         <v>1.095</v>
@@ -1395,7 +1398,7 @@
         <v>3.9306</v>
       </c>
       <c r="L14">
-        <v>0.722</v>
+        <v>0.7105</v>
       </c>
       <c r="M14">
         <v>2.8</v>
@@ -1410,19 +1413,19 @@
         <v>5565536</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1436,7 +1439,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15">
         <v>1.095</v>
@@ -1451,7 +1454,7 @@
         <v>3.9306</v>
       </c>
       <c r="L15">
-        <v>0.722</v>
+        <v>0.7105</v>
       </c>
       <c r="M15">
         <v>2.8</v>
@@ -1466,19 +1469,19 @@
         <v>5565536</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1492,7 +1495,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F16">
         <v>0.1625</v>
@@ -1507,7 +1510,7 @@
         <v>0.6614</v>
       </c>
       <c r="L16">
-        <v>0.1195</v>
+        <v>0.123</v>
       </c>
       <c r="M16">
         <v>0.37704</v>
@@ -1522,19 +1525,19 @@
         <v>5565536</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1548,7 +1551,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F17">
         <v>0.1625</v>
@@ -1563,7 +1566,7 @@
         <v>0.6614</v>
       </c>
       <c r="L17">
-        <v>0.1195</v>
+        <v>0.123</v>
       </c>
       <c r="M17">
         <v>0.37704</v>
@@ -1578,19 +1581,19 @@
         <v>5565536</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1607,7 +1610,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18">
         <v>0.053</v>
@@ -1637,19 +1640,19 @@
         <v>5565536</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1666,7 +1669,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19">
         <v>0.053</v>
@@ -1696,19 +1699,19 @@
         <v>5565536</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1725,7 +1728,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20">
         <v>791.5</v>
@@ -1746,7 +1749,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L20">
-        <v>1053.5</v>
+        <v>933.5</v>
       </c>
       <c r="M20">
         <v>7234</v>
@@ -1761,19 +1764,19 @@
         <v>5565536</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1790,7 +1793,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21">
         <v>791.5</v>
@@ -1811,7 +1814,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L21">
-        <v>1053.5</v>
+        <v>933.5</v>
       </c>
       <c r="M21">
         <v>7234</v>
@@ -1826,19 +1829,19 @@
         <v>5565536</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1855,7 +1858,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22">
         <v>791.5</v>
@@ -1876,7 +1879,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L22">
-        <v>1053.5</v>
+        <v>933.5</v>
       </c>
       <c r="M22">
         <v>7234</v>
@@ -1891,19 +1894,19 @@
         <v>5565536</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1920,7 +1923,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23">
         <v>791.5</v>
@@ -1941,7 +1944,7 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L23">
-        <v>1053.5</v>
+        <v>933.5</v>
       </c>
       <c r="M23">
         <v>7234</v>
@@ -1956,19 +1959,19 @@
         <v>5565536</v>
       </c>
       <c r="Q23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1985,13 +1988,13 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24">
         <v>0.01624</v>
       </c>
       <c r="G24">
-        <v>0.0879329781663728</v>
+        <v>0.0879365925259039</v>
       </c>
       <c r="H24">
         <v>2.95853584131359</v>
@@ -2000,7 +2003,7 @@
         <v>0.19225</v>
       </c>
       <c r="L24">
-        <v>0.00497</v>
+        <v>0.00596</v>
       </c>
       <c r="M24">
         <v>0.05711</v>
@@ -2015,19 +2018,19 @@
         <v>5565536</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2044,13 +2047,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F25">
         <v>0.01624</v>
       </c>
       <c r="G25">
-        <v>0.0879329781663728</v>
+        <v>0.0879365925259039</v>
       </c>
       <c r="H25">
         <v>2.95853584131359</v>
@@ -2059,7 +2062,7 @@
         <v>0.19225</v>
       </c>
       <c r="L25">
-        <v>0.00497</v>
+        <v>0.00596</v>
       </c>
       <c r="M25">
         <v>0.05711</v>
@@ -2074,19 +2077,19 @@
         <v>5565536</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2103,13 +2106,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>0.05725</v>
       </c>
       <c r="G26">
-        <v>0.294504480069607</v>
+        <v>0.294406742263923</v>
       </c>
       <c r="H26">
         <v>2.4</v>
@@ -2118,7 +2121,7 @@
         <v>1.32064</v>
       </c>
       <c r="L26">
-        <v>0.002</v>
+        <v>0.0064</v>
       </c>
       <c r="M26">
         <v>0.6192</v>
@@ -2133,19 +2136,19 @@
         <v>5565536</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2162,13 +2165,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>0.05725</v>
       </c>
       <c r="G27">
-        <v>0.294504480069607</v>
+        <v>0.294406742263923</v>
       </c>
       <c r="H27">
         <v>2.4</v>
@@ -2177,7 +2180,7 @@
         <v>1.32064</v>
       </c>
       <c r="L27">
-        <v>0.002</v>
+        <v>0.0064</v>
       </c>
       <c r="M27">
         <v>0.6192</v>
@@ -2192,19 +2195,19 @@
         <v>5565536</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2218,13 +2221,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28">
         <v>0.1105</v>
       </c>
       <c r="G28">
-        <v>0.463377887074331</v>
+        <v>0.463381284351308</v>
       </c>
       <c r="H28">
         <v>5.34</v>
@@ -2233,7 +2236,7 @@
         <v>1.69584</v>
       </c>
       <c r="L28">
-        <v>0.0204</v>
+        <v>0.0255</v>
       </c>
       <c r="M28">
         <v>0.87488</v>
@@ -2248,19 +2251,19 @@
         <v>5565536</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2274,13 +2277,13 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29">
         <v>0.1105</v>
       </c>
       <c r="G29">
-        <v>0.463377887074331</v>
+        <v>0.463381284351308</v>
       </c>
       <c r="H29">
         <v>5.34</v>
@@ -2289,7 +2292,7 @@
         <v>1.69584</v>
       </c>
       <c r="L29">
-        <v>0.0204</v>
+        <v>0.0255</v>
       </c>
       <c r="M29">
         <v>0.87488</v>
@@ -2304,19 +2307,19 @@
         <v>5565536</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2330,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F30">
         <v>1.1575</v>
@@ -2360,19 +2363,19 @@
         <v>5565536</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2386,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F31">
         <v>1.1575</v>
@@ -2416,19 +2419,19 @@
         <v>5565536</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2442,7 +2445,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F32">
         <v>0.173</v>
@@ -2457,7 +2460,7 @@
         <v>0.6614</v>
       </c>
       <c r="L32">
-        <v>0.1195</v>
+        <v>0.123</v>
       </c>
       <c r="M32">
         <v>0.41076</v>
@@ -2472,19 +2475,19 @@
         <v>5565536</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2498,7 +2501,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <v>0.173</v>
@@ -2513,7 +2516,7 @@
         <v>0.6614</v>
       </c>
       <c r="L33">
-        <v>0.1195</v>
+        <v>0.123</v>
       </c>
       <c r="M33">
         <v>0.41076</v>
@@ -2528,19 +2531,19 @@
         <v>5565536</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2557,7 +2560,7 @@
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F34">
         <v>0.0515</v>
@@ -2572,7 +2575,7 @@
         <v>0.35</v>
       </c>
       <c r="L34">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
       <c r="M34">
         <v>0.11784</v>
@@ -2587,19 +2590,19 @@
         <v>5565536</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2616,7 +2619,7 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F35">
         <v>0.0515</v>
@@ -2631,7 +2634,7 @@
         <v>0.35</v>
       </c>
       <c r="L35">
-        <v>0.055</v>
+        <v>0.057</v>
       </c>
       <c r="M35">
         <v>0.11784</v>
@@ -2646,19 +2649,19 @@
         <v>5565536</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2675,7 +2678,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F36">
         <v>838</v>
@@ -2696,7 +2699,7 @@
         <v>69.6428571428571</v>
       </c>
       <c r="L36">
-        <v>767</v>
+        <v>813.5</v>
       </c>
       <c r="M36">
         <v>4782</v>
@@ -2711,19 +2714,19 @@
         <v>5565536</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2740,7 +2743,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F37">
         <v>838</v>
@@ -2761,7 +2764,7 @@
         <v>69.6428571428571</v>
       </c>
       <c r="L37">
-        <v>767</v>
+        <v>813.5</v>
       </c>
       <c r="M37">
         <v>4782</v>
@@ -2776,19 +2779,19 @@
         <v>5565536</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2805,7 +2808,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F38">
         <v>838</v>
@@ -2826,7 +2829,7 @@
         <v>69.6428571428571</v>
       </c>
       <c r="L38">
-        <v>767</v>
+        <v>813.5</v>
       </c>
       <c r="M38">
         <v>4782</v>
@@ -2841,19 +2844,19 @@
         <v>5565536</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2870,7 +2873,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F39">
         <v>838</v>
@@ -2891,7 +2894,7 @@
         <v>69.6428571428571</v>
       </c>
       <c r="L39">
-        <v>767</v>
+        <v>813.5</v>
       </c>
       <c r="M39">
         <v>4782</v>
@@ -2906,19 +2909,19 @@
         <v>5565536</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2935,13 +2938,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F40">
         <v>0.008229999999999999</v>
       </c>
       <c r="G40">
-        <v>0.165209474484746</v>
+        <v>0.165219360479413</v>
       </c>
       <c r="H40">
         <v>4.38948372272883</v>
@@ -2950,7 +2953,7 @@
         <v>0.42336</v>
       </c>
       <c r="L40">
-        <v>0.00363</v>
+        <v>0.00405</v>
       </c>
       <c r="M40">
         <v>0.05842</v>
@@ -2965,19 +2968,19 @@
         <v>5565536</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2994,13 +2997,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41">
         <v>0.008229999999999999</v>
       </c>
       <c r="G41">
-        <v>0.165209474484746</v>
+        <v>0.165219360479413</v>
       </c>
       <c r="H41">
         <v>4.38948372272883</v>
@@ -3009,7 +3012,7 @@
         <v>0.42336</v>
       </c>
       <c r="L41">
-        <v>0.00363</v>
+        <v>0.00405</v>
       </c>
       <c r="M41">
         <v>0.05842</v>
@@ -3024,19 +3027,19 @@
         <v>5565536</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3053,13 +3056,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F42">
         <v>0.0669</v>
       </c>
       <c r="G42">
-        <v>0.319158858830546</v>
+        <v>0.319111549620445</v>
       </c>
       <c r="H42">
         <v>2.4</v>
@@ -3068,7 +3071,7 @@
         <v>1.40608</v>
       </c>
       <c r="L42">
-        <v>0.002</v>
+        <v>0.0054</v>
       </c>
       <c r="M42">
         <v>0.8078</v>
@@ -3083,19 +3086,19 @@
         <v>5565536</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3112,13 +3115,13 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43">
         <v>0.0669</v>
       </c>
       <c r="G43">
-        <v>0.319158858830546</v>
+        <v>0.319111549620445</v>
       </c>
       <c r="H43">
         <v>2.4</v>
@@ -3127,7 +3130,7 @@
         <v>1.40608</v>
       </c>
       <c r="L43">
-        <v>0.002</v>
+        <v>0.0054</v>
       </c>
       <c r="M43">
         <v>0.8078</v>
@@ -3142,19 +3145,19 @@
         <v>5565536</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3168,13 +3171,13 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44">
         <v>0.126</v>
       </c>
       <c r="G44">
-        <v>0.600371287039397</v>
+        <v>0.600389728761663</v>
       </c>
       <c r="H44">
         <v>7.71</v>
@@ -3183,7 +3186,7 @@
         <v>2.42452</v>
       </c>
       <c r="L44">
-        <v>0.012</v>
+        <v>0.0162</v>
       </c>
       <c r="M44">
         <v>1.06044</v>
@@ -3198,19 +3201,19 @@
         <v>5565536</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3224,13 +3227,13 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45">
         <v>0.126</v>
       </c>
       <c r="G45">
-        <v>0.600371287039397</v>
+        <v>0.600389728761663</v>
       </c>
       <c r="H45">
         <v>7.71</v>
@@ -3239,7 +3242,7 @@
         <v>2.42452</v>
       </c>
       <c r="L45">
-        <v>0.012</v>
+        <v>0.0162</v>
       </c>
       <c r="M45">
         <v>1.06044</v>
@@ -3254,19 +3257,19 @@
         <v>5565536</v>
       </c>
       <c r="Q45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3280,7 +3283,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F46">
         <v>1.255</v>
@@ -3295,7 +3298,7 @@
         <v>4.8328</v>
       </c>
       <c r="L46">
-        <v>0.788</v>
+        <v>0.849</v>
       </c>
       <c r="M46">
         <v>3.23884</v>
@@ -3310,19 +3313,19 @@
         <v>5565536</v>
       </c>
       <c r="Q46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3336,7 +3339,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F47">
         <v>1.255</v>
@@ -3351,7 +3354,7 @@
         <v>4.8328</v>
       </c>
       <c r="L47">
-        <v>0.788</v>
+        <v>0.849</v>
       </c>
       <c r="M47">
         <v>3.23884</v>
@@ -3366,19 +3369,19 @@
         <v>5565536</v>
       </c>
       <c r="Q47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3392,7 +3395,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>0.182</v>
@@ -3407,7 +3410,7 @@
         <v>0.6573</v>
       </c>
       <c r="L48">
-        <v>0.126</v>
+        <v>0.1355</v>
       </c>
       <c r="M48">
         <v>0.41388</v>
@@ -3422,19 +3425,19 @@
         <v>5565536</v>
       </c>
       <c r="Q48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3448,7 +3451,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>0.182</v>
@@ -3463,7 +3466,7 @@
         <v>0.6573</v>
       </c>
       <c r="L49">
-        <v>0.126</v>
+        <v>0.1355</v>
       </c>
       <c r="M49">
         <v>0.41388</v>
@@ -3478,19 +3481,19 @@
         <v>5565536</v>
       </c>
       <c r="Q49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U49" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3507,7 +3510,7 @@
         <v>47</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F50">
         <v>0.042</v>
@@ -3522,7 +3525,7 @@
         <v>0.244</v>
       </c>
       <c r="L50">
-        <v>0.045</v>
+        <v>0.039</v>
       </c>
       <c r="M50">
         <v>0.10294</v>
@@ -3537,19 +3540,19 @@
         <v>5565536</v>
       </c>
       <c r="Q50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3566,7 +3569,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F51">
         <v>0.042</v>
@@ -3581,7 +3584,7 @@
         <v>0.244</v>
       </c>
       <c r="L51">
-        <v>0.045</v>
+        <v>0.039</v>
       </c>
       <c r="M51">
         <v>0.10294</v>
@@ -3596,19 +3599,19 @@
         <v>5565536</v>
       </c>
       <c r="Q51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3625,7 +3628,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F52">
         <v>451</v>
@@ -3646,7 +3649,7 @@
         <v>62.5</v>
       </c>
       <c r="L52">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M52">
         <v>4782</v>
@@ -3661,19 +3664,19 @@
         <v>5565536</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3690,7 +3693,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F53">
         <v>451</v>
@@ -3711,7 +3714,7 @@
         <v>62.5</v>
       </c>
       <c r="L53">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M53">
         <v>4782</v>
@@ -3726,19 +3729,19 @@
         <v>5565536</v>
       </c>
       <c r="Q53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3755,7 +3758,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F54">
         <v>451</v>
@@ -3776,7 +3779,7 @@
         <v>62.5</v>
       </c>
       <c r="L54">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M54">
         <v>4782</v>
@@ -3791,19 +3794,19 @@
         <v>5565536</v>
       </c>
       <c r="Q54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3820,7 +3823,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <v>451</v>
@@ -3841,7 +3844,7 @@
         <v>62.5</v>
       </c>
       <c r="L55">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M55">
         <v>4782</v>
@@ -3856,19 +3859,19 @@
         <v>5565536</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3885,13 +3888,13 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F56">
         <v>0.0078</v>
       </c>
       <c r="G56">
-        <v>0.209722984520433</v>
+        <v>0.209732870515101</v>
       </c>
       <c r="H56">
         <v>4.38948372272883</v>
@@ -3900,7 +3903,7 @@
         <v>0.8417</v>
       </c>
       <c r="L56">
-        <v>0.00363</v>
+        <v>0.00405</v>
       </c>
       <c r="M56">
         <v>0.09231</v>
@@ -3915,19 +3918,19 @@
         <v>5565536</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3944,13 +3947,13 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>0.0078</v>
       </c>
       <c r="G57">
-        <v>0.209722984520433</v>
+        <v>0.209732870515101</v>
       </c>
       <c r="H57">
         <v>4.38948372272883</v>
@@ -3959,7 +3962,7 @@
         <v>0.8417</v>
       </c>
       <c r="L57">
-        <v>0.00363</v>
+        <v>0.00405</v>
       </c>
       <c r="M57">
         <v>0.09231</v>
@@ -3974,19 +3977,19 @@
         <v>5565536</v>
       </c>
       <c r="Q57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4003,13 +4006,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F58">
         <v>0.0308</v>
       </c>
       <c r="G58">
-        <v>0.253076559712646</v>
+        <v>0.253049938745976</v>
       </c>
       <c r="H58">
         <v>1.5406</v>
@@ -4018,7 +4021,7 @@
         <v>1.158</v>
       </c>
       <c r="L58">
-        <v>0.002</v>
+        <v>0.00505</v>
       </c>
       <c r="M58">
         <v>0.68194</v>
@@ -4033,19 +4036,19 @@
         <v>5565536</v>
       </c>
       <c r="Q58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4062,13 +4065,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59">
         <v>0.0308</v>
       </c>
       <c r="G59">
-        <v>0.253076559712646</v>
+        <v>0.253049938745976</v>
       </c>
       <c r="H59">
         <v>1.5406</v>
@@ -4077,7 +4080,7 @@
         <v>1.158</v>
       </c>
       <c r="L59">
-        <v>0.002</v>
+        <v>0.00505</v>
       </c>
       <c r="M59">
         <v>0.68194</v>
@@ -4092,19 +4095,19 @@
         <v>5565536</v>
       </c>
       <c r="Q59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4118,13 +4121,13 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F60">
         <v>0.16645</v>
       </c>
       <c r="G60">
-        <v>0.638076644182254</v>
+        <v>0.63809508590452</v>
       </c>
       <c r="H60">
         <v>7.71</v>
@@ -4133,7 +4136,7 @@
         <v>1.9568</v>
       </c>
       <c r="L60">
-        <v>0.012</v>
+        <v>0.0162</v>
       </c>
       <c r="M60">
         <v>1.08946</v>
@@ -4148,19 +4151,19 @@
         <v>5565536</v>
       </c>
       <c r="Q60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U60" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4174,13 +4177,13 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F61">
         <v>0.16645</v>
       </c>
       <c r="G61">
-        <v>0.638076644182254</v>
+        <v>0.63809508590452</v>
       </c>
       <c r="H61">
         <v>7.71</v>
@@ -4189,7 +4192,7 @@
         <v>1.9568</v>
       </c>
       <c r="L61">
-        <v>0.012</v>
+        <v>0.0162</v>
       </c>
       <c r="M61">
         <v>1.08946</v>
@@ -4204,19 +4207,19 @@
         <v>5565536</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4230,7 +4233,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F62">
         <v>1.32</v>
@@ -4245,7 +4248,7 @@
         <v>5.9808</v>
       </c>
       <c r="L62">
-        <v>0.788</v>
+        <v>0.998</v>
       </c>
       <c r="M62">
         <v>3.3492</v>
@@ -4260,19 +4263,19 @@
         <v>5565536</v>
       </c>
       <c r="Q62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U62" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4286,7 +4289,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F63">
         <v>1.32</v>
@@ -4301,7 +4304,7 @@
         <v>5.9808</v>
       </c>
       <c r="L63">
-        <v>0.788</v>
+        <v>0.998</v>
       </c>
       <c r="M63">
         <v>3.3492</v>
@@ -4316,19 +4319,19 @@
         <v>5565536</v>
       </c>
       <c r="Q63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4342,7 +4345,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64">
         <v>0.228</v>
@@ -4357,7 +4360,7 @@
         <v>0.7075</v>
       </c>
       <c r="L64">
-        <v>0.126</v>
+        <v>0.1355</v>
       </c>
       <c r="M64">
         <v>0.42968</v>
@@ -4372,19 +4375,19 @@
         <v>5565536</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4398,7 +4401,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F65">
         <v>0.228</v>
@@ -4413,7 +4416,7 @@
         <v>0.7075</v>
       </c>
       <c r="L65">
-        <v>0.126</v>
+        <v>0.1355</v>
       </c>
       <c r="M65">
         <v>0.42968</v>
@@ -4428,19 +4431,19 @@
         <v>5565536</v>
       </c>
       <c r="Q65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4457,13 +4460,13 @@
         <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F66">
         <v>0.2</v>
       </c>
       <c r="G66">
-        <v>0.227820038452638</v>
+        <v>0.227839549718095</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -4472,7 +4475,7 @@
         <v>0.4364</v>
       </c>
       <c r="L66">
-        <v>0.205</v>
+        <v>0.1925</v>
       </c>
       <c r="M66">
         <v>0.3242</v>
@@ -4487,19 +4490,19 @@
         <v>5565536</v>
       </c>
       <c r="Q66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4516,7 +4519,7 @@
         <v>48</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F67">
         <v>0.038</v>
@@ -4531,7 +4534,7 @@
         <v>0.20975</v>
       </c>
       <c r="L67">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="M67">
         <v>0.07085</v>
@@ -4546,19 +4549,19 @@
         <v>5565536</v>
       </c>
       <c r="Q67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4575,7 +4578,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F68">
         <v>0.038</v>
@@ -4590,7 +4593,7 @@
         <v>0.20975</v>
       </c>
       <c r="L68">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="M68">
         <v>0.07085</v>
@@ -4605,19 +4608,19 @@
         <v>5565536</v>
       </c>
       <c r="Q68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4634,19 +4637,19 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F69">
         <v>432</v>
       </c>
       <c r="G69">
-        <v>4378.61576232096</v>
+        <v>4642.38028207239</v>
       </c>
       <c r="H69">
         <v>69000</v>
       </c>
       <c r="I69">
-        <v>21122.8254</v>
+        <v>30248.7283</v>
       </c>
       <c r="J69">
         <v>43.6363636363636</v>
@@ -4655,13 +4658,13 @@
         <v>61.8181818181818</v>
       </c>
       <c r="L69">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M69">
         <v>4035</v>
       </c>
       <c r="N69">
-        <v>15349.13016</v>
+        <v>15700</v>
       </c>
       <c r="O69">
         <v>1784998</v>
@@ -4670,19 +4673,19 @@
         <v>5565536</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4699,19 +4702,19 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70">
         <v>432</v>
       </c>
       <c r="G70">
-        <v>4378.61576232096</v>
+        <v>4642.38028207239</v>
       </c>
       <c r="H70">
         <v>69000</v>
       </c>
       <c r="I70">
-        <v>21122.8254</v>
+        <v>30248.7283</v>
       </c>
       <c r="J70">
         <v>43.6363636363636</v>
@@ -4720,13 +4723,13 @@
         <v>61.8181818181818</v>
       </c>
       <c r="L70">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M70">
         <v>4035</v>
       </c>
       <c r="N70">
-        <v>15349.13016</v>
+        <v>15700</v>
       </c>
       <c r="O70">
         <v>1784998</v>
@@ -4735,19 +4738,19 @@
         <v>5565536</v>
       </c>
       <c r="Q70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4764,19 +4767,19 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>432</v>
       </c>
       <c r="G71">
-        <v>4378.61576232096</v>
+        <v>4642.38028207239</v>
       </c>
       <c r="H71">
         <v>69000</v>
       </c>
       <c r="I71">
-        <v>21122.8254</v>
+        <v>30248.7283</v>
       </c>
       <c r="J71">
         <v>43.6363636363636</v>
@@ -4785,13 +4788,13 @@
         <v>61.8181818181818</v>
       </c>
       <c r="L71">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M71">
         <v>4035</v>
       </c>
       <c r="N71">
-        <v>15349.13016</v>
+        <v>15700</v>
       </c>
       <c r="O71">
         <v>1784998</v>
@@ -4800,19 +4803,19 @@
         <v>5565536</v>
       </c>
       <c r="Q71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4829,19 +4832,19 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F72">
         <v>432</v>
       </c>
       <c r="G72">
-        <v>4378.61576232096</v>
+        <v>4642.38028207239</v>
       </c>
       <c r="H72">
         <v>69000</v>
       </c>
       <c r="I72">
-        <v>21122.8254</v>
+        <v>30248.7283</v>
       </c>
       <c r="J72">
         <v>43.6363636363636</v>
@@ -4850,13 +4853,13 @@
         <v>61.8181818181818</v>
       </c>
       <c r="L72">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="M72">
         <v>4035</v>
       </c>
       <c r="N72">
-        <v>15349.13016</v>
+        <v>15700</v>
       </c>
       <c r="O72">
         <v>1784998</v>
@@ -4865,19 +4868,19 @@
         <v>5565536</v>
       </c>
       <c r="Q72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4894,13 +4897,13 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F73">
         <v>0.02818</v>
       </c>
       <c r="G73">
-        <v>0.17372354452767</v>
+        <v>0.173740796756215</v>
       </c>
       <c r="H73">
         <v>4.38948372272883</v>
@@ -4909,7 +4912,7 @@
         <v>0.8212699999999999</v>
       </c>
       <c r="L73">
-        <v>0.00467</v>
+        <v>0.01012</v>
       </c>
       <c r="M73">
         <v>0.11363</v>
@@ -4924,19 +4927,19 @@
         <v>5565536</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4953,13 +4956,13 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F74">
         <v>0.02818</v>
       </c>
       <c r="G74">
-        <v>0.17372354452767</v>
+        <v>0.173740796756215</v>
       </c>
       <c r="H74">
         <v>4.38948372272883</v>
@@ -4968,7 +4971,7 @@
         <v>0.8212699999999999</v>
       </c>
       <c r="L74">
-        <v>0.00467</v>
+        <v>0.01012</v>
       </c>
       <c r="M74">
         <v>0.11363</v>
@@ -4983,19 +4986,19 @@
         <v>5565536</v>
       </c>
       <c r="Q74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5012,13 +5015,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F75">
         <v>0.059</v>
       </c>
       <c r="G75">
-        <v>0.358168124495735</v>
+        <v>0.358235270447068</v>
       </c>
       <c r="H75">
         <v>4.02</v>
@@ -5027,7 +5030,7 @@
         <v>2.0025</v>
       </c>
       <c r="L75">
-        <v>0.00326</v>
+        <v>0.0063</v>
       </c>
       <c r="M75">
         <v>0.68555</v>
@@ -5042,19 +5045,19 @@
         <v>5565536</v>
       </c>
       <c r="Q75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5071,13 +5074,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F76">
         <v>0.059</v>
       </c>
       <c r="G76">
-        <v>0.358168124495735</v>
+        <v>0.358235270447068</v>
       </c>
       <c r="H76">
         <v>4.02</v>
@@ -5086,7 +5089,7 @@
         <v>2.0025</v>
       </c>
       <c r="L76">
-        <v>0.00326</v>
+        <v>0.0063</v>
       </c>
       <c r="M76">
         <v>0.68555</v>
@@ -5101,19 +5104,19 @@
         <v>5565536</v>
       </c>
       <c r="Q76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5127,13 +5130,13 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F77">
         <v>0.25</v>
       </c>
       <c r="G77">
-        <v>0.701433677715268</v>
+        <v>0.701464269603282</v>
       </c>
       <c r="H77">
         <v>7.71</v>
@@ -5142,7 +5145,7 @@
         <v>3.43</v>
       </c>
       <c r="L77">
-        <v>0.056</v>
+        <v>0.0333</v>
       </c>
       <c r="M77">
         <v>1.162</v>
@@ -5157,19 +5160,19 @@
         <v>5565536</v>
       </c>
       <c r="Q77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U77" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5183,13 +5186,13 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F78">
         <v>0.25</v>
       </c>
       <c r="G78">
-        <v>0.701433677715268</v>
+        <v>0.701464269603282</v>
       </c>
       <c r="H78">
         <v>7.71</v>
@@ -5198,7 +5201,7 @@
         <v>3.43</v>
       </c>
       <c r="L78">
-        <v>0.056</v>
+        <v>0.0333</v>
       </c>
       <c r="M78">
         <v>1.162</v>
@@ -5213,19 +5216,19 @@
         <v>5565536</v>
       </c>
       <c r="Q78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U78" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5239,7 +5242,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F79">
         <v>1.72</v>
@@ -5254,7 +5257,7 @@
         <v>6.1825</v>
       </c>
       <c r="L79">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="M79">
         <v>3.626</v>
@@ -5269,19 +5272,19 @@
         <v>5565536</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U79" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5295,7 +5298,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F80">
         <v>1.72</v>
@@ -5310,7 +5313,7 @@
         <v>6.1825</v>
       </c>
       <c r="L80">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="M80">
         <v>3.626</v>
@@ -5325,19 +5328,19 @@
         <v>5565536</v>
       </c>
       <c r="Q80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U80" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5351,7 +5354,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F81">
         <v>0.23</v>
@@ -5366,7 +5369,7 @@
         <v>0.847</v>
       </c>
       <c r="L81">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="M81">
         <v>0.4478</v>
@@ -5381,19 +5384,19 @@
         <v>5565536</v>
       </c>
       <c r="Q81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5407,7 +5410,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F82">
         <v>0.23</v>
@@ -5422,7 +5425,7 @@
         <v>0.847</v>
       </c>
       <c r="L82">
-        <v>0.216</v>
+        <v>0.215</v>
       </c>
       <c r="M82">
         <v>0.4478</v>
@@ -5437,19 +5440,19 @@
         <v>5565536</v>
       </c>
       <c r="Q82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U82" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5466,13 +5469,13 @@
         <v>49</v>
       </c>
       <c r="E83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F83">
         <v>0.175</v>
       </c>
       <c r="G83">
-        <v>0.202463943972774</v>
+        <v>0.202479637816729</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -5481,7 +5484,7 @@
         <v>0.384</v>
       </c>
       <c r="L83">
-        <v>0.169</v>
+        <v>0.175</v>
       </c>
       <c r="M83">
         <v>0.3</v>
@@ -5496,19 +5499,19 @@
         <v>5565536</v>
       </c>
       <c r="Q83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U83" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5525,7 +5528,7 @@
         <v>49</v>
       </c>
       <c r="E84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F84">
         <v>0.033</v>
@@ -5540,7 +5543,7 @@
         <v>0.211</v>
       </c>
       <c r="L84">
-        <v>0.036</v>
+        <v>0.0345</v>
       </c>
       <c r="M84">
         <v>0.09052</v>
@@ -5555,19 +5558,19 @@
         <v>5565536</v>
       </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5584,7 +5587,7 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F85">
         <v>0.033</v>
@@ -5599,7 +5602,7 @@
         <v>0.211</v>
       </c>
       <c r="L85">
-        <v>0.036</v>
+        <v>0.0345</v>
       </c>
       <c r="M85">
         <v>0.09052</v>
@@ -5614,19 +5617,19 @@
         <v>5565536</v>
       </c>
       <c r="Q85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5643,19 +5646,19 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F86">
         <v>510</v>
       </c>
       <c r="G86">
-        <v>6404.49753569727</v>
+        <v>6673.14658359225</v>
       </c>
       <c r="H86">
         <v>98000</v>
       </c>
       <c r="I86">
-        <v>46000</v>
+        <v>48199.66088</v>
       </c>
       <c r="J86">
         <v>48.1481481481481</v>
@@ -5664,13 +5667,13 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L86">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M86">
         <v>6424</v>
       </c>
       <c r="N86">
-        <v>19122.86731</v>
+        <v>23979.69479</v>
       </c>
       <c r="O86">
         <v>1784998</v>
@@ -5679,19 +5682,19 @@
         <v>5565536</v>
       </c>
       <c r="Q86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5708,19 +5711,19 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F87">
         <v>510</v>
       </c>
       <c r="G87">
-        <v>6404.49753569727</v>
+        <v>6673.14658359225</v>
       </c>
       <c r="H87">
         <v>98000</v>
       </c>
       <c r="I87">
-        <v>46000</v>
+        <v>48199.66088</v>
       </c>
       <c r="J87">
         <v>48.1481481481481</v>
@@ -5729,13 +5732,13 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L87">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M87">
         <v>6424</v>
       </c>
       <c r="N87">
-        <v>19122.86731</v>
+        <v>23979.69479</v>
       </c>
       <c r="O87">
         <v>1784998</v>
@@ -5744,19 +5747,19 @@
         <v>5565536</v>
       </c>
       <c r="Q87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5773,19 +5776,19 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F88">
         <v>510</v>
       </c>
       <c r="G88">
-        <v>6404.49753569727</v>
+        <v>6673.14658359225</v>
       </c>
       <c r="H88">
         <v>98000</v>
       </c>
       <c r="I88">
-        <v>46000</v>
+        <v>48199.66088</v>
       </c>
       <c r="J88">
         <v>48.1481481481481</v>
@@ -5794,13 +5797,13 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L88">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M88">
         <v>6424</v>
       </c>
       <c r="N88">
-        <v>19122.86731</v>
+        <v>23979.69479</v>
       </c>
       <c r="O88">
         <v>1784998</v>
@@ -5809,19 +5812,19 @@
         <v>5565536</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5838,19 +5841,19 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F89">
         <v>510</v>
       </c>
       <c r="G89">
-        <v>6404.49753569727</v>
+        <v>6673.14658359225</v>
       </c>
       <c r="H89">
         <v>98000</v>
       </c>
       <c r="I89">
-        <v>46000</v>
+        <v>48199.66088</v>
       </c>
       <c r="J89">
         <v>48.1481481481481</v>
@@ -5859,13 +5862,13 @@
         <v>64.8148148148148</v>
       </c>
       <c r="L89">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="M89">
         <v>6424</v>
       </c>
       <c r="N89">
-        <v>19122.86731</v>
+        <v>23979.69479</v>
       </c>
       <c r="O89">
         <v>1784998</v>
@@ -5874,19 +5877,19 @@
         <v>5565536</v>
       </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5903,13 +5906,13 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F90">
         <v>0.04461</v>
       </c>
       <c r="G90">
-        <v>0.212148577729457</v>
+        <v>0.212173210210258</v>
       </c>
       <c r="H90">
         <v>4.38948372272883</v>
@@ -5918,7 +5921,7 @@
         <v>0.84484</v>
       </c>
       <c r="L90">
-        <v>0.04314</v>
+        <v>0.03329</v>
       </c>
       <c r="M90">
         <v>0.20613</v>
@@ -5933,19 +5936,19 @@
         <v>5565536</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5962,13 +5965,13 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F91">
         <v>0.04461</v>
       </c>
       <c r="G91">
-        <v>0.212148577729457</v>
+        <v>0.212173210210258</v>
       </c>
       <c r="H91">
         <v>4.38948372272883</v>
@@ -5977,7 +5980,7 @@
         <v>0.84484</v>
       </c>
       <c r="L91">
-        <v>0.04314</v>
+        <v>0.03329</v>
       </c>
       <c r="M91">
         <v>0.20613</v>
@@ -5992,19 +5995,19 @@
         <v>5565536</v>
       </c>
       <c r="Q91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6021,13 +6024,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F92">
         <v>0.132</v>
       </c>
       <c r="G92">
-        <v>0.552027907350347</v>
+        <v>0.55214484382539</v>
       </c>
       <c r="H92">
         <v>5.78</v>
@@ -6036,7 +6039,7 @@
         <v>3.534</v>
       </c>
       <c r="L92">
-        <v>0.013</v>
+        <v>0.01154</v>
       </c>
       <c r="M92">
         <v>0.81394</v>
@@ -6051,19 +6054,19 @@
         <v>5565536</v>
       </c>
       <c r="Q92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6080,13 +6083,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F93">
         <v>0.132</v>
       </c>
       <c r="G93">
-        <v>0.552027907350347</v>
+        <v>0.55214484382539</v>
       </c>
       <c r="H93">
         <v>5.78</v>
@@ -6095,7 +6098,7 @@
         <v>3.534</v>
       </c>
       <c r="L93">
-        <v>0.013</v>
+        <v>0.01154</v>
       </c>
       <c r="M93">
         <v>0.81394</v>
@@ -6110,19 +6113,19 @@
         <v>5565536</v>
       </c>
       <c r="Q93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6136,13 +6139,13 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F94">
         <v>0.395</v>
       </c>
       <c r="G94">
-        <v>0.98062319026555</v>
+        <v>0.980654348670009</v>
       </c>
       <c r="H94">
         <v>7.71</v>
@@ -6151,7 +6154,7 @@
         <v>4.186</v>
       </c>
       <c r="L94">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="M94">
         <v>1.83784</v>
@@ -6166,19 +6169,19 @@
         <v>5565536</v>
       </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6192,13 +6195,13 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F95">
         <v>0.395</v>
       </c>
       <c r="G95">
-        <v>0.98062319026555</v>
+        <v>0.980654348670009</v>
       </c>
       <c r="H95">
         <v>7.71</v>
@@ -6207,7 +6210,7 @@
         <v>4.186</v>
       </c>
       <c r="L95">
-        <v>0.2</v>
+        <v>0.225</v>
       </c>
       <c r="M95">
         <v>1.83784</v>
@@ -6222,19 +6225,19 @@
         <v>5565536</v>
       </c>
       <c r="Q95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U95" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6248,7 +6251,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F96">
         <v>2.155</v>
@@ -6263,7 +6266,7 @@
         <v>7.316</v>
       </c>
       <c r="L96">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="M96">
         <v>3.7856</v>
@@ -6278,19 +6281,19 @@
         <v>5565536</v>
       </c>
       <c r="Q96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U96" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6304,7 +6307,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F97">
         <v>2.155</v>
@@ -6319,7 +6322,7 @@
         <v>7.316</v>
       </c>
       <c r="L97">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="M97">
         <v>3.7856</v>
@@ -6334,19 +6337,19 @@
         <v>5565536</v>
       </c>
       <c r="Q97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U97" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6360,7 +6363,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F98">
         <v>0.276</v>
@@ -6375,7 +6378,7 @@
         <v>0.8552</v>
       </c>
       <c r="L98">
-        <v>0.244</v>
+        <v>0.2415</v>
       </c>
       <c r="M98">
         <v>0.5056</v>
@@ -6390,19 +6393,19 @@
         <v>5565536</v>
       </c>
       <c r="Q98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U98" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6416,7 +6419,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F99">
         <v>0.276</v>
@@ -6431,7 +6434,7 @@
         <v>0.8552</v>
       </c>
       <c r="L99">
-        <v>0.244</v>
+        <v>0.2415</v>
       </c>
       <c r="M99">
         <v>0.5056</v>
@@ -6446,19 +6449,19 @@
         <v>5565536</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U99" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6475,7 +6478,7 @@
         <v>50</v>
       </c>
       <c r="E100" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F100">
         <v>0.1565</v>
@@ -6505,19 +6508,19 @@
         <v>5565536</v>
       </c>
       <c r="Q100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U100" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6534,7 +6537,7 @@
         <v>50</v>
       </c>
       <c r="E101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F101">
         <v>0.0325</v>
@@ -6549,7 +6552,7 @@
         <v>0.2385</v>
       </c>
       <c r="L101">
-        <v>0.042</v>
+        <v>0.0415</v>
       </c>
       <c r="M101">
         <v>0.09018</v>
@@ -6564,19 +6567,19 @@
         <v>5565536</v>
       </c>
       <c r="Q101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6593,7 +6596,7 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F102">
         <v>0.0325</v>
@@ -6608,7 +6611,7 @@
         <v>0.2385</v>
       </c>
       <c r="L102">
-        <v>0.042</v>
+        <v>0.0415</v>
       </c>
       <c r="M102">
         <v>0.09018</v>
@@ -6623,19 +6626,19 @@
         <v>5565536</v>
       </c>
       <c r="Q102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6652,19 +6655,19 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F103">
         <v>520</v>
       </c>
       <c r="G103">
-        <v>7294.91047500581</v>
+        <v>7530.09703051219</v>
       </c>
       <c r="H103">
         <v>98000</v>
       </c>
       <c r="I103">
-        <v>49404.26921</v>
+        <v>50099.83044</v>
       </c>
       <c r="J103">
         <v>48.0769230769231</v>
@@ -6673,13 +6676,13 @@
         <v>63.4615384615385</v>
       </c>
       <c r="L103">
-        <v>395</v>
+        <v>505</v>
       </c>
       <c r="M103">
         <v>9700</v>
       </c>
       <c r="N103">
-        <v>23374.51533</v>
+        <v>26737.02394</v>
       </c>
       <c r="O103">
         <v>1784998</v>
@@ -6688,19 +6691,19 @@
         <v>5565536</v>
       </c>
       <c r="Q103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6717,19 +6720,19 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F104">
         <v>520</v>
       </c>
       <c r="G104">
-        <v>7294.91047500581</v>
+        <v>7530.09703051219</v>
       </c>
       <c r="H104">
         <v>98000</v>
       </c>
       <c r="I104">
-        <v>49404.26921</v>
+        <v>50099.83044</v>
       </c>
       <c r="J104">
         <v>48.0769230769231</v>
@@ -6738,13 +6741,13 @@
         <v>63.4615384615385</v>
       </c>
       <c r="L104">
-        <v>395</v>
+        <v>505</v>
       </c>
       <c r="M104">
         <v>9700</v>
       </c>
       <c r="N104">
-        <v>23374.51533</v>
+        <v>26737.02394</v>
       </c>
       <c r="O104">
         <v>1784998</v>
@@ -6753,19 +6756,19 @@
         <v>5565536</v>
       </c>
       <c r="Q104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6782,19 +6785,19 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F105">
         <v>520</v>
       </c>
       <c r="G105">
-        <v>7294.91047500581</v>
+        <v>7530.09703051219</v>
       </c>
       <c r="H105">
         <v>98000</v>
       </c>
       <c r="I105">
-        <v>49404.26921</v>
+        <v>50099.83044</v>
       </c>
       <c r="J105">
         <v>48.0769230769231</v>
@@ -6803,13 +6806,13 @@
         <v>63.4615384615385</v>
       </c>
       <c r="L105">
-        <v>395</v>
+        <v>505</v>
       </c>
       <c r="M105">
         <v>9700</v>
       </c>
       <c r="N105">
-        <v>23374.51533</v>
+        <v>26737.02394</v>
       </c>
       <c r="O105">
         <v>1784998</v>
@@ -6818,19 +6821,19 @@
         <v>5565536</v>
       </c>
       <c r="Q105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6847,19 +6850,19 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F106">
         <v>520</v>
       </c>
       <c r="G106">
-        <v>7294.91047500581</v>
+        <v>7530.09703051219</v>
       </c>
       <c r="H106">
         <v>98000</v>
       </c>
       <c r="I106">
-        <v>49404.26921</v>
+        <v>50099.83044</v>
       </c>
       <c r="J106">
         <v>48.0769230769231</v>
@@ -6868,13 +6871,13 @@
         <v>63.4615384615385</v>
       </c>
       <c r="L106">
-        <v>395</v>
+        <v>505</v>
       </c>
       <c r="M106">
         <v>9700</v>
       </c>
       <c r="N106">
-        <v>23374.51533</v>
+        <v>26737.02394</v>
       </c>
       <c r="O106">
         <v>1784998</v>
@@ -6883,19 +6886,19 @@
         <v>5565536</v>
       </c>
       <c r="Q106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6912,13 +6915,13 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F107">
         <v>0.05181</v>
       </c>
       <c r="G107">
-        <v>0.225640948685223</v>
+        <v>0.225663701373659</v>
       </c>
       <c r="H107">
         <v>4.38948372272883</v>
@@ -6927,7 +6930,7 @@
         <v>0.8471</v>
       </c>
       <c r="L107">
-        <v>0.04858</v>
+        <v>0.0377</v>
       </c>
       <c r="M107">
         <v>0.20219</v>
@@ -6942,19 +6945,19 @@
         <v>5565536</v>
       </c>
       <c r="Q107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6971,13 +6974,13 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F108">
         <v>0.05181</v>
       </c>
       <c r="G108">
-        <v>0.225640948685223</v>
+        <v>0.225663701373659</v>
       </c>
       <c r="H108">
         <v>4.38948372272883</v>
@@ -6986,7 +6989,7 @@
         <v>0.8471</v>
       </c>
       <c r="L108">
-        <v>0.04858</v>
+        <v>0.0377</v>
       </c>
       <c r="M108">
         <v>0.20219</v>
@@ -7001,19 +7004,19 @@
         <v>5565536</v>
       </c>
       <c r="Q108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7030,13 +7033,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F109">
         <v>0.139</v>
       </c>
       <c r="G109">
-        <v>0.553623209895195</v>
+        <v>0.5538032245351689</v>
       </c>
       <c r="H109">
         <v>5.78</v>
@@ -7045,7 +7048,7 @@
         <v>3.582</v>
       </c>
       <c r="L109">
-        <v>0.05</v>
+        <v>0.0265</v>
       </c>
       <c r="M109">
         <v>0.73316</v>
@@ -7060,19 +7063,19 @@
         <v>5565536</v>
       </c>
       <c r="Q109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7089,13 +7092,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F110">
         <v>0.139</v>
       </c>
       <c r="G110">
-        <v>0.553623209895195</v>
+        <v>0.5538032245351689</v>
       </c>
       <c r="H110">
         <v>5.78</v>
@@ -7104,7 +7107,7 @@
         <v>3.582</v>
       </c>
       <c r="L110">
-        <v>0.05</v>
+        <v>0.0265</v>
       </c>
       <c r="M110">
         <v>0.73316</v>
@@ -7119,19 +7122,19 @@
         <v>5565536</v>
       </c>
       <c r="Q110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7145,13 +7148,13 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111">
         <v>0.395</v>
       </c>
       <c r="G111">
-        <v>0.9992237466159331</v>
+        <v>0.99925231415009</v>
       </c>
       <c r="H111">
         <v>7.71</v>
@@ -7175,19 +7178,19 @@
         <v>5565536</v>
       </c>
       <c r="Q111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U111" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7201,13 +7204,13 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F112">
         <v>0.395</v>
       </c>
       <c r="G112">
-        <v>0.9992237466159331</v>
+        <v>0.99925231415009</v>
       </c>
       <c r="H112">
         <v>7.71</v>
@@ -7231,19 +7234,19 @@
         <v>5565536</v>
       </c>
       <c r="Q112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7257,7 +7260,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F113">
         <v>2.14</v>
@@ -7272,7 +7275,7 @@
         <v>7.413</v>
       </c>
       <c r="L113">
-        <v>1.335</v>
+        <v>1.465</v>
       </c>
       <c r="M113">
         <v>4.2344</v>
@@ -7287,19 +7290,19 @@
         <v>5565536</v>
       </c>
       <c r="Q113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U113" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7313,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F114">
         <v>2.14</v>
@@ -7328,7 +7331,7 @@
         <v>7.413</v>
       </c>
       <c r="L114">
-        <v>1.335</v>
+        <v>1.465</v>
       </c>
       <c r="M114">
         <v>4.2344</v>
@@ -7343,19 +7346,19 @@
         <v>5565536</v>
       </c>
       <c r="Q114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U114" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7369,7 +7372,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F115">
         <v>0.2795</v>
@@ -7384,7 +7387,7 @@
         <v>1.2588</v>
       </c>
       <c r="L115">
-        <v>0.231</v>
+        <v>0.2415</v>
       </c>
       <c r="M115">
         <v>0.5291400000000001</v>
@@ -7399,19 +7402,19 @@
         <v>5565536</v>
       </c>
       <c r="Q115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U115" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7425,7 +7428,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F116">
         <v>0.2795</v>
@@ -7440,7 +7443,7 @@
         <v>1.2588</v>
       </c>
       <c r="L116">
-        <v>0.231</v>
+        <v>0.2415</v>
       </c>
       <c r="M116">
         <v>0.5291400000000001</v>
@@ -7455,19 +7458,19 @@
         <v>5565536</v>
       </c>
       <c r="Q116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U116" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7484,7 +7487,7 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F117">
         <v>0.15</v>
@@ -7499,7 +7502,7 @@
         <v>0.3115</v>
       </c>
       <c r="L117">
-        <v>0.135</v>
+        <v>0.14</v>
       </c>
       <c r="M117">
         <v>0.25</v>
@@ -7514,19 +7517,19 @@
         <v>5565536</v>
       </c>
       <c r="Q117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U117" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7543,7 +7546,7 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F118">
         <v>0.0375</v>
@@ -7573,19 +7576,19 @@
         <v>5565536</v>
       </c>
       <c r="Q118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7602,7 +7605,7 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F119">
         <v>0.0375</v>
@@ -7632,19 +7635,19 @@
         <v>5565536</v>
       </c>
       <c r="Q119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7661,13 +7664,13 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F120">
         <v>490</v>
       </c>
       <c r="G120">
-        <v>7388.28689400604</v>
+        <v>7632.88091173267</v>
       </c>
       <c r="H120">
         <v>98000</v>
@@ -7682,13 +7685,13 @@
         <v>60</v>
       </c>
       <c r="L120">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="M120">
         <v>9700</v>
       </c>
       <c r="N120">
-        <v>24021.34607</v>
+        <v>28254.91012</v>
       </c>
       <c r="O120">
         <v>1784998</v>
@@ -7697,19 +7700,19 @@
         <v>5565536</v>
       </c>
       <c r="Q120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7726,13 +7729,13 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F121">
         <v>490</v>
       </c>
       <c r="G121">
-        <v>7388.28689400604</v>
+        <v>7632.88091173267</v>
       </c>
       <c r="H121">
         <v>98000</v>
@@ -7747,13 +7750,13 @@
         <v>60</v>
       </c>
       <c r="L121">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="M121">
         <v>9700</v>
       </c>
       <c r="N121">
-        <v>24021.34607</v>
+        <v>28254.91012</v>
       </c>
       <c r="O121">
         <v>1784998</v>
@@ -7762,19 +7765,19 @@
         <v>5565536</v>
       </c>
       <c r="Q121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7791,13 +7794,13 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F122">
         <v>490</v>
       </c>
       <c r="G122">
-        <v>7388.28689400604</v>
+        <v>7632.88091173267</v>
       </c>
       <c r="H122">
         <v>98000</v>
@@ -7812,13 +7815,13 @@
         <v>60</v>
       </c>
       <c r="L122">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="M122">
         <v>9700</v>
       </c>
       <c r="N122">
-        <v>24021.34607</v>
+        <v>28254.91012</v>
       </c>
       <c r="O122">
         <v>1784998</v>
@@ -7827,19 +7830,19 @@
         <v>5565536</v>
       </c>
       <c r="Q122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7856,13 +7859,13 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F123">
         <v>490</v>
       </c>
       <c r="G123">
-        <v>7388.28689400604</v>
+        <v>7632.88091173267</v>
       </c>
       <c r="H123">
         <v>98000</v>
@@ -7877,13 +7880,13 @@
         <v>60</v>
       </c>
       <c r="L123">
-        <v>245</v>
+        <v>340</v>
       </c>
       <c r="M123">
         <v>9700</v>
       </c>
       <c r="N123">
-        <v>24021.34607</v>
+        <v>28254.91012</v>
       </c>
       <c r="O123">
         <v>1784998</v>
@@ -7892,19 +7895,19 @@
         <v>5565536</v>
       </c>
       <c r="Q123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7921,13 +7924,13 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F124">
         <v>0.05305</v>
       </c>
       <c r="G124">
-        <v>0.133415878959725</v>
+        <v>0.133431712888929</v>
       </c>
       <c r="H124">
         <v>0.853013204165481</v>
@@ -7936,7 +7939,7 @@
         <v>0.83387</v>
       </c>
       <c r="L124">
-        <v>0.05295</v>
+        <v>0.04958</v>
       </c>
       <c r="M124">
         <v>0.17702</v>
@@ -7951,19 +7954,19 @@
         <v>5565536</v>
       </c>
       <c r="Q124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7980,13 +7983,13 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F125">
         <v>0.05305</v>
       </c>
       <c r="G125">
-        <v>0.133415878959725</v>
+        <v>0.133431712888929</v>
       </c>
       <c r="H125">
         <v>0.853013204165481</v>
@@ -7995,7 +7998,7 @@
         <v>0.83387</v>
       </c>
       <c r="L125">
-        <v>0.05295</v>
+        <v>0.04958</v>
       </c>
       <c r="M125">
         <v>0.17702</v>
@@ -8010,19 +8013,19 @@
         <v>5565536</v>
       </c>
       <c r="Q125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8039,13 +8042,13 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F126">
         <v>0.1365</v>
       </c>
       <c r="G126">
-        <v>0.5372817609217529</v>
+        <v>0.537401886685382</v>
       </c>
       <c r="H126">
         <v>5.78</v>
@@ -8054,7 +8057,7 @@
         <v>3.63</v>
       </c>
       <c r="L126">
-        <v>0.05</v>
+        <v>0.0365</v>
       </c>
       <c r="M126">
         <v>0.494</v>
@@ -8069,19 +8072,19 @@
         <v>5565536</v>
       </c>
       <c r="Q126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U126" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8098,13 +8101,13 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F127">
         <v>0.1365</v>
       </c>
       <c r="G127">
-        <v>0.5372817609217529</v>
+        <v>0.537401886685382</v>
       </c>
       <c r="H127">
         <v>5.78</v>
@@ -8113,7 +8116,7 @@
         <v>3.63</v>
       </c>
       <c r="L127">
-        <v>0.05</v>
+        <v>0.0365</v>
       </c>
       <c r="M127">
         <v>0.494</v>
@@ -8128,19 +8131,19 @@
         <v>5565536</v>
       </c>
       <c r="Q127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U127" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8154,13 +8157,13 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F128">
         <v>0.395</v>
       </c>
       <c r="G128">
-        <v>0.86491520400267</v>
+        <v>0.864928200350548</v>
       </c>
       <c r="H128">
         <v>6.39</v>
@@ -8184,19 +8187,19 @@
         <v>5565536</v>
       </c>
       <c r="Q128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U128" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8210,13 +8213,13 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F129">
         <v>0.395</v>
       </c>
       <c r="G129">
-        <v>0.86491520400267</v>
+        <v>0.864928200350548</v>
       </c>
       <c r="H129">
         <v>6.39</v>
@@ -8240,19 +8243,19 @@
         <v>5565536</v>
       </c>
       <c r="Q129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8266,7 +8269,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F130">
         <v>2.14</v>
@@ -8281,7 +8284,7 @@
         <v>6.54</v>
       </c>
       <c r="L130">
-        <v>1.685</v>
+        <v>1.695</v>
       </c>
       <c r="M130">
         <v>4.01</v>
@@ -8296,19 +8299,19 @@
         <v>5565536</v>
       </c>
       <c r="Q130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U130" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8322,7 +8325,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F131">
         <v>2.14</v>
@@ -8337,7 +8340,7 @@
         <v>6.54</v>
       </c>
       <c r="L131">
-        <v>1.685</v>
+        <v>1.695</v>
       </c>
       <c r="M131">
         <v>4.01</v>
@@ -8352,19 +8355,19 @@
         <v>5565536</v>
       </c>
       <c r="Q131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U131" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8378,7 +8381,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F132">
         <v>0.2915</v>
@@ -8393,7 +8396,7 @@
         <v>0.888</v>
       </c>
       <c r="L132">
-        <v>0.2715</v>
+        <v>0.2705</v>
       </c>
       <c r="M132">
         <v>0.553</v>
@@ -8408,19 +8411,19 @@
         <v>5565536</v>
       </c>
       <c r="Q132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U132" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8434,7 +8437,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F133">
         <v>0.2915</v>
@@ -8449,7 +8452,7 @@
         <v>0.888</v>
       </c>
       <c r="L133">
-        <v>0.2715</v>
+        <v>0.2705</v>
       </c>
       <c r="M133">
         <v>0.553</v>
@@ -8464,19 +8467,19 @@
         <v>5565536</v>
       </c>
       <c r="Q133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U133" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8493,7 +8496,7 @@
         <v>52</v>
       </c>
       <c r="E134" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F134">
         <v>0.14</v>
@@ -8508,7 +8511,7 @@
         <v>0.261</v>
       </c>
       <c r="L134">
-        <v>0.125</v>
+        <v>0.135</v>
       </c>
       <c r="M134">
         <v>0.2087</v>
@@ -8523,19 +8526,19 @@
         <v>5565536</v>
       </c>
       <c r="Q134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U134" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8552,7 +8555,7 @@
         <v>52</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F135">
         <v>0.0545</v>
@@ -8567,7 +8570,7 @@
         <v>0.395</v>
       </c>
       <c r="L135">
-        <v>0.104</v>
+        <v>0.065</v>
       </c>
       <c r="M135">
         <v>0.13376</v>
@@ -8582,19 +8585,19 @@
         <v>5565536</v>
       </c>
       <c r="Q135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8611,7 +8614,7 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F136">
         <v>0.0545</v>
@@ -8626,7 +8629,7 @@
         <v>0.395</v>
       </c>
       <c r="L136">
-        <v>0.104</v>
+        <v>0.065</v>
       </c>
       <c r="M136">
         <v>0.13376</v>
@@ -8641,19 +8644,19 @@
         <v>5565536</v>
       </c>
       <c r="Q136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8670,19 +8673,19 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F137">
         <v>845</v>
       </c>
       <c r="G137">
-        <v>6153.76836305005</v>
+        <v>6419.63142579638</v>
       </c>
       <c r="H137">
         <v>98000</v>
       </c>
       <c r="I137">
-        <v>31234.15371</v>
+        <v>36798.64352</v>
       </c>
       <c r="J137">
         <v>54.3478260869565</v>
@@ -8691,13 +8694,13 @@
         <v>67.39130434782609</v>
       </c>
       <c r="L137">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M137">
         <v>9109.040000000001</v>
       </c>
       <c r="N137">
-        <v>17531.08873</v>
+        <v>21693.35355</v>
       </c>
       <c r="O137">
         <v>1784998</v>
@@ -8706,19 +8709,19 @@
         <v>5565536</v>
       </c>
       <c r="Q137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8735,19 +8738,19 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F138">
         <v>845</v>
       </c>
       <c r="G138">
-        <v>6153.76836305005</v>
+        <v>6419.63142579638</v>
       </c>
       <c r="H138">
         <v>98000</v>
       </c>
       <c r="I138">
-        <v>31234.15371</v>
+        <v>36798.64352</v>
       </c>
       <c r="J138">
         <v>54.3478260869565</v>
@@ -8756,13 +8759,13 @@
         <v>67.39130434782609</v>
       </c>
       <c r="L138">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M138">
         <v>9109.040000000001</v>
       </c>
       <c r="N138">
-        <v>17531.08873</v>
+        <v>21693.35355</v>
       </c>
       <c r="O138">
         <v>1784998</v>
@@ -8771,19 +8774,19 @@
         <v>5565536</v>
       </c>
       <c r="Q138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8800,19 +8803,19 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F139">
         <v>845</v>
       </c>
       <c r="G139">
-        <v>6153.76836305005</v>
+        <v>6419.63142579638</v>
       </c>
       <c r="H139">
         <v>98000</v>
       </c>
       <c r="I139">
-        <v>31234.15371</v>
+        <v>36798.64352</v>
       </c>
       <c r="J139">
         <v>54.3478260869565</v>
@@ -8821,13 +8824,13 @@
         <v>67.39130434782609</v>
       </c>
       <c r="L139">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M139">
         <v>9109.040000000001</v>
       </c>
       <c r="N139">
-        <v>17531.08873</v>
+        <v>21693.35355</v>
       </c>
       <c r="O139">
         <v>1784998</v>
@@ -8836,19 +8839,19 @@
         <v>5565536</v>
       </c>
       <c r="Q139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8865,19 +8868,19 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F140">
         <v>845</v>
       </c>
       <c r="G140">
-        <v>6153.76836305005</v>
+        <v>6419.63142579638</v>
       </c>
       <c r="H140">
         <v>98000</v>
       </c>
       <c r="I140">
-        <v>31234.15371</v>
+        <v>36798.64352</v>
       </c>
       <c r="J140">
         <v>54.3478260869565</v>
@@ -8886,13 +8889,13 @@
         <v>67.39130434782609</v>
       </c>
       <c r="L140">
-        <v>2600</v>
+        <v>1300</v>
       </c>
       <c r="M140">
         <v>9109.040000000001</v>
       </c>
       <c r="N140">
-        <v>17531.08873</v>
+        <v>21693.35355</v>
       </c>
       <c r="O140">
         <v>1784998</v>
@@ -8901,19 +8904,19 @@
         <v>5565536</v>
       </c>
       <c r="Q140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8930,13 +8933,13 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F141">
         <v>0.03865</v>
       </c>
       <c r="G141">
-        <v>0.275305270147775</v>
+        <v>0.275322648850559</v>
       </c>
       <c r="H141">
         <v>8.093624628922971</v>
@@ -8945,7 +8948,7 @@
         <v>0.59904</v>
       </c>
       <c r="L141">
-        <v>0.04858</v>
+        <v>0.03745</v>
       </c>
       <c r="M141">
         <v>0.11809</v>
@@ -8960,19 +8963,19 @@
         <v>5565536</v>
       </c>
       <c r="Q141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8989,13 +8992,13 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F142">
         <v>0.03865</v>
       </c>
       <c r="G142">
-        <v>0.275305270147775</v>
+        <v>0.275322648850559</v>
       </c>
       <c r="H142">
         <v>8.093624628922971</v>
@@ -9004,7 +9007,7 @@
         <v>0.59904</v>
       </c>
       <c r="L142">
-        <v>0.04858</v>
+        <v>0.03745</v>
       </c>
       <c r="M142">
         <v>0.11809</v>
@@ -9019,19 +9022,19 @@
         <v>5565536</v>
       </c>
       <c r="Q142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9048,13 +9051,13 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F143">
         <v>0.194</v>
       </c>
       <c r="G143">
-        <v>0.658859286200738</v>
+        <v>0.65895600314553</v>
       </c>
       <c r="H143">
         <v>5.78</v>
@@ -9063,7 +9066,7 @@
         <v>3.708</v>
       </c>
       <c r="L143">
-        <v>0.196</v>
+        <v>0.142</v>
       </c>
       <c r="M143">
         <v>0.90996</v>
@@ -9078,19 +9081,19 @@
         <v>5565536</v>
       </c>
       <c r="Q143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U143" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9107,13 +9110,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F144">
         <v>0.194</v>
       </c>
       <c r="G144">
-        <v>0.658859286200738</v>
+        <v>0.65895600314553</v>
       </c>
       <c r="H144">
         <v>5.78</v>
@@ -9122,7 +9125,7 @@
         <v>3.708</v>
       </c>
       <c r="L144">
-        <v>0.196</v>
+        <v>0.142</v>
       </c>
       <c r="M144">
         <v>0.90996</v>
@@ -9137,19 +9140,19 @@
         <v>5565536</v>
       </c>
       <c r="Q144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U144" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9163,13 +9166,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F145">
         <v>0.419</v>
       </c>
       <c r="G145">
-        <v>1.33169043913334</v>
+        <v>1.33170456559842</v>
       </c>
       <c r="H145">
         <v>21.43</v>
@@ -9178,7 +9181,7 @@
         <v>4.71</v>
       </c>
       <c r="L145">
-        <v>0.54</v>
+        <v>0.275</v>
       </c>
       <c r="M145">
         <v>1.50428</v>
@@ -9193,19 +9196,19 @@
         <v>5565536</v>
       </c>
       <c r="Q145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U145" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9219,13 +9222,13 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F146">
         <v>0.419</v>
       </c>
       <c r="G146">
-        <v>1.33169043913334</v>
+        <v>1.33170456559842</v>
       </c>
       <c r="H146">
         <v>21.43</v>
@@ -9234,7 +9237,7 @@
         <v>4.71</v>
       </c>
       <c r="L146">
-        <v>0.54</v>
+        <v>0.275</v>
       </c>
       <c r="M146">
         <v>1.50428</v>
@@ -9249,19 +9252,19 @@
         <v>5565536</v>
       </c>
       <c r="Q146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U146" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9275,7 +9278,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F147">
         <v>2.155</v>
@@ -9290,7 +9293,7 @@
         <v>5.774</v>
       </c>
       <c r="L147">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="M147">
         <v>3.7008</v>
@@ -9305,19 +9308,19 @@
         <v>5565536</v>
       </c>
       <c r="Q147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U147" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9331,7 +9334,7 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F148">
         <v>2.155</v>
@@ -9346,7 +9349,7 @@
         <v>5.774</v>
       </c>
       <c r="L148">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="M148">
         <v>3.7008</v>
@@ -9361,19 +9364,19 @@
         <v>5565536</v>
       </c>
       <c r="Q148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U148" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9387,7 +9390,7 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F149">
         <v>0.302</v>
@@ -9402,7 +9405,7 @@
         <v>1.306</v>
       </c>
       <c r="L149">
-        <v>0.504</v>
+        <v>0.3</v>
       </c>
       <c r="M149">
         <v>0.53652</v>
@@ -9417,19 +9420,19 @@
         <v>5565536</v>
       </c>
       <c r="Q149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9443,7 +9446,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F150">
         <v>0.302</v>
@@ -9458,7 +9461,7 @@
         <v>1.306</v>
       </c>
       <c r="L150">
-        <v>0.504</v>
+        <v>0.3</v>
       </c>
       <c r="M150">
         <v>0.53652</v>
@@ -9473,19 +9476,19 @@
         <v>5565536</v>
       </c>
       <c r="Q150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U150" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9502,7 +9505,7 @@
         <v>53</v>
       </c>
       <c r="E151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F151">
         <v>0.13</v>
@@ -9517,7 +9520,7 @@
         <v>0.2472</v>
       </c>
       <c r="L151">
-        <v>0.105</v>
+        <v>0.12</v>
       </c>
       <c r="M151">
         <v>0.2106</v>
@@ -9532,19 +9535,19 @@
         <v>5565536</v>
       </c>
       <c r="Q151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9561,7 +9564,7 @@
         <v>53</v>
       </c>
       <c r="E152" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F152">
         <v>0.065</v>
@@ -9576,7 +9579,7 @@
         <v>0.3232</v>
       </c>
       <c r="L152">
-        <v>0.142</v>
+        <v>0.104</v>
       </c>
       <c r="M152">
         <v>0.16818</v>
@@ -9591,19 +9594,19 @@
         <v>5565536</v>
       </c>
       <c r="Q152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9620,7 +9623,7 @@
         <v>53</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F153">
         <v>0.065</v>
@@ -9635,7 +9638,7 @@
         <v>0.3232</v>
       </c>
       <c r="L153">
-        <v>0.142</v>
+        <v>0.104</v>
       </c>
       <c r="M153">
         <v>0.16818</v>
@@ -9650,19 +9653,19 @@
         <v>5565536</v>
       </c>
       <c r="Q153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9679,13 +9682,13 @@
         <v>53</v>
       </c>
       <c r="E154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F154">
         <v>1379</v>
       </c>
       <c r="G154">
-        <v>13602.6622737825</v>
+        <v>13549.6820947128</v>
       </c>
       <c r="H154">
         <v>241960</v>
@@ -9700,7 +9703,7 @@
         <v>69.7674418604651</v>
       </c>
       <c r="L154">
-        <v>2742</v>
+        <v>1744</v>
       </c>
       <c r="M154">
         <v>9700</v>
@@ -9715,19 +9718,19 @@
         <v>5565536</v>
       </c>
       <c r="Q154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9744,13 +9747,13 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F155">
         <v>1379</v>
       </c>
       <c r="G155">
-        <v>13602.6622737825</v>
+        <v>13549.6820947128</v>
       </c>
       <c r="H155">
         <v>241960</v>
@@ -9765,7 +9768,7 @@
         <v>69.7674418604651</v>
       </c>
       <c r="L155">
-        <v>2742</v>
+        <v>1744</v>
       </c>
       <c r="M155">
         <v>9700</v>
@@ -9780,19 +9783,19 @@
         <v>5565536</v>
       </c>
       <c r="Q155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9809,13 +9812,13 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F156">
         <v>1379</v>
       </c>
       <c r="G156">
-        <v>13602.6622737825</v>
+        <v>13549.6820947128</v>
       </c>
       <c r="H156">
         <v>241960</v>
@@ -9830,7 +9833,7 @@
         <v>69.7674418604651</v>
       </c>
       <c r="L156">
-        <v>2742</v>
+        <v>1744</v>
       </c>
       <c r="M156">
         <v>9700</v>
@@ -9845,19 +9848,19 @@
         <v>5565536</v>
       </c>
       <c r="Q156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9874,13 +9877,13 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F157">
         <v>1379</v>
       </c>
       <c r="G157">
-        <v>13602.6622737825</v>
+        <v>13549.6820947128</v>
       </c>
       <c r="H157">
         <v>241960</v>
@@ -9895,7 +9898,7 @@
         <v>69.7674418604651</v>
       </c>
       <c r="L157">
-        <v>2742</v>
+        <v>1744</v>
       </c>
       <c r="M157">
         <v>9700</v>
@@ -9910,19 +9913,19 @@
         <v>5565536</v>
       </c>
       <c r="Q157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9939,13 +9942,13 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F158">
         <v>0.03861</v>
       </c>
       <c r="G158">
-        <v>0.288846779204996</v>
+        <v>0.288856230274378</v>
       </c>
       <c r="H158">
         <v>8.093624628922971</v>
@@ -9954,7 +9957,7 @@
         <v>0.6683</v>
       </c>
       <c r="L158">
-        <v>0.03745</v>
+        <v>0.03222</v>
       </c>
       <c r="M158">
         <v>0.11794</v>
@@ -9969,19 +9972,19 @@
         <v>5565536</v>
       </c>
       <c r="Q158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9998,13 +10001,13 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F159">
         <v>0.03861</v>
       </c>
       <c r="G159">
-        <v>0.288846779204996</v>
+        <v>0.288856230274378</v>
       </c>
       <c r="H159">
         <v>8.093624628922971</v>
@@ -10013,7 +10016,7 @@
         <v>0.6683</v>
       </c>
       <c r="L159">
-        <v>0.03745</v>
+        <v>0.03222</v>
       </c>
       <c r="M159">
         <v>0.11794</v>
@@ -10028,19 +10031,19 @@
         <v>5565536</v>
       </c>
       <c r="Q159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10057,13 +10060,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F160">
         <v>0.192</v>
       </c>
       <c r="G160">
-        <v>0.496375992136667</v>
+        <v>0.49642867069489</v>
       </c>
       <c r="H160">
         <v>5.78</v>
@@ -10072,7 +10075,7 @@
         <v>2.032</v>
       </c>
       <c r="L160">
-        <v>0.253</v>
+        <v>0.142</v>
       </c>
       <c r="M160">
         <v>0.69202</v>
@@ -10087,19 +10090,19 @@
         <v>5565536</v>
       </c>
       <c r="Q160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U160" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10116,13 +10119,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F161">
         <v>0.192</v>
       </c>
       <c r="G161">
-        <v>0.496375992136667</v>
+        <v>0.49642867069489</v>
       </c>
       <c r="H161">
         <v>5.78</v>
@@ -10131,7 +10134,7 @@
         <v>2.032</v>
       </c>
       <c r="L161">
-        <v>0.253</v>
+        <v>0.142</v>
       </c>
       <c r="M161">
         <v>0.69202</v>
@@ -10146,19 +10149,19 @@
         <v>5565536</v>
       </c>
       <c r="Q161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U161" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10172,7 +10175,7 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F162">
         <v>0.41</v>
@@ -10187,7 +10190,7 @@
         <v>4.28725</v>
       </c>
       <c r="L162">
-        <v>0.515</v>
+        <v>0.275</v>
       </c>
       <c r="M162">
         <v>1.1352</v>
@@ -10202,19 +10205,19 @@
         <v>5565536</v>
       </c>
       <c r="Q162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U162" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10228,7 +10231,7 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F163">
         <v>0.41</v>
@@ -10243,7 +10246,7 @@
         <v>4.28725</v>
       </c>
       <c r="L163">
-        <v>0.515</v>
+        <v>0.275</v>
       </c>
       <c r="M163">
         <v>1.1352</v>
@@ -10258,19 +10261,19 @@
         <v>5565536</v>
       </c>
       <c r="Q163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U163" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10284,7 +10287,7 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F164">
         <v>2.18</v>
@@ -10299,7 +10302,7 @@
         <v>5.132</v>
       </c>
       <c r="L164">
-        <v>2.555</v>
+        <v>2.19</v>
       </c>
       <c r="M164">
         <v>3.0966</v>
@@ -10314,19 +10317,19 @@
         <v>5565536</v>
       </c>
       <c r="Q164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U164" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10340,7 +10343,7 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F165">
         <v>2.18</v>
@@ -10355,7 +10358,7 @@
         <v>5.132</v>
       </c>
       <c r="L165">
-        <v>2.555</v>
+        <v>2.19</v>
       </c>
       <c r="M165">
         <v>3.0966</v>
@@ -10370,19 +10373,19 @@
         <v>5565536</v>
       </c>
       <c r="Q165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U165" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10396,7 +10399,7 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F166">
         <v>0.369</v>
@@ -10411,7 +10414,7 @@
         <v>0.91</v>
       </c>
       <c r="L166">
-        <v>0.499</v>
+        <v>0.442</v>
       </c>
       <c r="M166">
         <v>0.51418</v>
@@ -10426,19 +10429,19 @@
         <v>5565536</v>
       </c>
       <c r="Q166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U166" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10452,7 +10455,7 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F167">
         <v>0.369</v>
@@ -10467,7 +10470,7 @@
         <v>0.91</v>
       </c>
       <c r="L167">
-        <v>0.499</v>
+        <v>0.442</v>
       </c>
       <c r="M167">
         <v>0.51418</v>
@@ -10482,19 +10485,969 @@
         <v>5565536</v>
       </c>
       <c r="Q167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U167" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>22</v>
+      </c>
+      <c r="C168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" t="s">
+        <v>54</v>
+      </c>
+      <c r="E168" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168">
+        <v>0.105</v>
+      </c>
+      <c r="G168">
+        <v>0.19872972972973</v>
+      </c>
+      <c r="H168">
+        <v>3.49</v>
+      </c>
+      <c r="I168">
+        <v>0.3448</v>
+      </c>
+      <c r="L168">
+        <v>0.138</v>
+      </c>
+      <c r="M168">
+        <v>0.18873</v>
+      </c>
+      <c r="N168">
+        <v>0.27178</v>
+      </c>
+      <c r="O168">
+        <v>1784998</v>
+      </c>
+      <c r="P168">
+        <v>5565536</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>56</v>
+      </c>
+      <c r="R168" t="s">
+        <v>57</v>
+      </c>
+      <c r="S168" t="s">
+        <v>58</v>
+      </c>
+      <c r="T168" t="s">
+        <v>59</v>
+      </c>
+      <c r="U168" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>54</v>
+      </c>
+      <c r="E169" t="s">
+        <v>55</v>
+      </c>
+      <c r="F169">
+        <v>0.105</v>
+      </c>
+      <c r="G169">
+        <v>0.19872972972973</v>
+      </c>
+      <c r="H169">
+        <v>3.49</v>
+      </c>
+      <c r="I169">
+        <v>0.3448</v>
+      </c>
+      <c r="L169">
+        <v>0.138</v>
+      </c>
+      <c r="M169">
+        <v>0.18873</v>
+      </c>
+      <c r="N169">
+        <v>0.27178</v>
+      </c>
+      <c r="O169">
+        <v>1784998</v>
+      </c>
+      <c r="P169">
+        <v>5565536</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>56</v>
+      </c>
+      <c r="R169" t="s">
+        <v>57</v>
+      </c>
+      <c r="S169" t="s">
+        <v>58</v>
+      </c>
+      <c r="T169" t="s">
+        <v>59</v>
+      </c>
+      <c r="U169" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" t="s">
+        <v>40</v>
+      </c>
+      <c r="D170" t="s">
+        <v>54</v>
+      </c>
+      <c r="E170" t="s">
+        <v>55</v>
+      </c>
+      <c r="F170">
+        <v>1379</v>
+      </c>
+      <c r="G170">
+        <v>12758.4757060912</v>
+      </c>
+      <c r="H170">
+        <v>241960</v>
+      </c>
+      <c r="I170">
+        <v>66094</v>
+      </c>
+      <c r="J170">
+        <v>62.1621621621622</v>
+      </c>
+      <c r="K170">
+        <v>72.972972972973</v>
+      </c>
+      <c r="L170">
+        <v>1300</v>
+      </c>
+      <c r="M170">
+        <v>9682.620000000001</v>
+      </c>
+      <c r="N170">
+        <v>43922.69728</v>
+      </c>
+      <c r="O170">
+        <v>1784998</v>
+      </c>
+      <c r="P170">
+        <v>5565536</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>56</v>
+      </c>
+      <c r="R170" t="s">
+        <v>57</v>
+      </c>
+      <c r="S170" t="s">
+        <v>58</v>
+      </c>
+      <c r="T170" t="s">
+        <v>59</v>
+      </c>
+      <c r="U170" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>40</v>
+      </c>
+      <c r="D171" t="s">
+        <v>54</v>
+      </c>
+      <c r="E171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F171">
+        <v>1379</v>
+      </c>
+      <c r="G171">
+        <v>12758.4757060912</v>
+      </c>
+      <c r="H171">
+        <v>241960</v>
+      </c>
+      <c r="I171">
+        <v>66094</v>
+      </c>
+      <c r="J171">
+        <v>62.1621621621622</v>
+      </c>
+      <c r="K171">
+        <v>72.972972972973</v>
+      </c>
+      <c r="L171">
+        <v>1300</v>
+      </c>
+      <c r="M171">
+        <v>9682.620000000001</v>
+      </c>
+      <c r="N171">
+        <v>43922.69728</v>
+      </c>
+      <c r="O171">
+        <v>1784998</v>
+      </c>
+      <c r="P171">
+        <v>5565536</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>56</v>
+      </c>
+      <c r="R171" t="s">
+        <v>57</v>
+      </c>
+      <c r="S171" t="s">
+        <v>58</v>
+      </c>
+      <c r="T171" t="s">
+        <v>59</v>
+      </c>
+      <c r="U171" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" t="s">
+        <v>54</v>
+      </c>
+      <c r="E172" t="s">
+        <v>55</v>
+      </c>
+      <c r="F172">
+        <v>1379</v>
+      </c>
+      <c r="G172">
+        <v>12758.4757060912</v>
+      </c>
+      <c r="H172">
+        <v>241960</v>
+      </c>
+      <c r="I172">
+        <v>66094</v>
+      </c>
+      <c r="J172">
+        <v>62.1621621621622</v>
+      </c>
+      <c r="K172">
+        <v>72.972972972973</v>
+      </c>
+      <c r="L172">
+        <v>1300</v>
+      </c>
+      <c r="M172">
+        <v>9682.620000000001</v>
+      </c>
+      <c r="N172">
+        <v>43922.69728</v>
+      </c>
+      <c r="O172">
+        <v>1784998</v>
+      </c>
+      <c r="P172">
+        <v>5565536</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>56</v>
+      </c>
+      <c r="R172" t="s">
+        <v>57</v>
+      </c>
+      <c r="S172" t="s">
+        <v>58</v>
+      </c>
+      <c r="T172" t="s">
+        <v>59</v>
+      </c>
+      <c r="U172" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s">
+        <v>40</v>
+      </c>
+      <c r="D173" t="s">
+        <v>54</v>
+      </c>
+      <c r="E173" t="s">
+        <v>55</v>
+      </c>
+      <c r="F173">
+        <v>1379</v>
+      </c>
+      <c r="G173">
+        <v>12758.4757060912</v>
+      </c>
+      <c r="H173">
+        <v>241960</v>
+      </c>
+      <c r="I173">
+        <v>66094</v>
+      </c>
+      <c r="J173">
+        <v>62.1621621621622</v>
+      </c>
+      <c r="K173">
+        <v>72.972972972973</v>
+      </c>
+      <c r="L173">
+        <v>1300</v>
+      </c>
+      <c r="M173">
+        <v>9682.620000000001</v>
+      </c>
+      <c r="N173">
+        <v>43922.69728</v>
+      </c>
+      <c r="O173">
+        <v>1784998</v>
+      </c>
+      <c r="P173">
+        <v>5565536</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>56</v>
+      </c>
+      <c r="R173" t="s">
+        <v>57</v>
+      </c>
+      <c r="S173" t="s">
+        <v>58</v>
+      </c>
+      <c r="T173" t="s">
+        <v>59</v>
+      </c>
+      <c r="U173" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" t="s">
+        <v>54</v>
+      </c>
+      <c r="E174" t="s">
+        <v>55</v>
+      </c>
+      <c r="F174">
+        <v>0.0367</v>
+      </c>
+      <c r="G174">
+        <v>0.287705288196597</v>
+      </c>
+      <c r="H174">
+        <v>8.093624628922971</v>
+      </c>
+      <c r="I174">
+        <v>0.0974</v>
+      </c>
+      <c r="L174">
+        <v>0.03222</v>
+      </c>
+      <c r="M174">
+        <v>0.0568</v>
+      </c>
+      <c r="N174">
+        <v>0.08139</v>
+      </c>
+      <c r="O174">
+        <v>1784998</v>
+      </c>
+      <c r="P174">
+        <v>5565536</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>56</v>
+      </c>
+      <c r="R174" t="s">
+        <v>57</v>
+      </c>
+      <c r="S174" t="s">
+        <v>58</v>
+      </c>
+      <c r="T174" t="s">
+        <v>59</v>
+      </c>
+      <c r="U174" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>41</v>
+      </c>
+      <c r="D175" t="s">
+        <v>54</v>
+      </c>
+      <c r="E175" t="s">
+        <v>55</v>
+      </c>
+      <c r="F175">
+        <v>0.0367</v>
+      </c>
+      <c r="G175">
+        <v>0.287705288196597</v>
+      </c>
+      <c r="H175">
+        <v>8.093624628922971</v>
+      </c>
+      <c r="I175">
+        <v>0.0974</v>
+      </c>
+      <c r="L175">
+        <v>0.03222</v>
+      </c>
+      <c r="M175">
+        <v>0.0568</v>
+      </c>
+      <c r="N175">
+        <v>0.08139</v>
+      </c>
+      <c r="O175">
+        <v>1784998</v>
+      </c>
+      <c r="P175">
+        <v>5565536</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>56</v>
+      </c>
+      <c r="R175" t="s">
+        <v>57</v>
+      </c>
+      <c r="S175" t="s">
+        <v>58</v>
+      </c>
+      <c r="T175" t="s">
+        <v>59</v>
+      </c>
+      <c r="U175" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" t="s">
+        <v>42</v>
+      </c>
+      <c r="D176" t="s">
+        <v>54</v>
+      </c>
+      <c r="E176" t="s">
+        <v>55</v>
+      </c>
+      <c r="F176">
+        <v>0.168</v>
+      </c>
+      <c r="G176">
+        <v>0.306857318891066</v>
+      </c>
+      <c r="H176">
+        <v>1.43</v>
+      </c>
+      <c r="I176">
+        <v>1.16235</v>
+      </c>
+      <c r="L176">
+        <v>0.121</v>
+      </c>
+      <c r="M176">
+        <v>0.64767</v>
+      </c>
+      <c r="N176">
+        <v>0.86968</v>
+      </c>
+      <c r="O176">
+        <v>1784998</v>
+      </c>
+      <c r="P176">
+        <v>5565536</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>56</v>
+      </c>
+      <c r="R176" t="s">
+        <v>57</v>
+      </c>
+      <c r="S176" t="s">
+        <v>58</v>
+      </c>
+      <c r="T176" t="s">
+        <v>59</v>
+      </c>
+      <c r="U176" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>42</v>
+      </c>
+      <c r="D177" t="s">
+        <v>54</v>
+      </c>
+      <c r="E177" t="s">
+        <v>55</v>
+      </c>
+      <c r="F177">
+        <v>0.168</v>
+      </c>
+      <c r="G177">
+        <v>0.306857318891066</v>
+      </c>
+      <c r="H177">
+        <v>1.43</v>
+      </c>
+      <c r="I177">
+        <v>1.16235</v>
+      </c>
+      <c r="L177">
+        <v>0.121</v>
+      </c>
+      <c r="M177">
+        <v>0.64767</v>
+      </c>
+      <c r="N177">
+        <v>0.86968</v>
+      </c>
+      <c r="O177">
+        <v>1784998</v>
+      </c>
+      <c r="P177">
+        <v>5565536</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>56</v>
+      </c>
+      <c r="R177" t="s">
+        <v>57</v>
+      </c>
+      <c r="S177" t="s">
+        <v>58</v>
+      </c>
+      <c r="T177" t="s">
+        <v>59</v>
+      </c>
+      <c r="U177" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" t="s">
+        <v>54</v>
+      </c>
+      <c r="E178" t="s">
+        <v>55</v>
+      </c>
+      <c r="F178">
+        <v>0.255</v>
+      </c>
+      <c r="G178">
+        <v>0.98522972972973</v>
+      </c>
+      <c r="H178">
+        <v>21.43</v>
+      </c>
+      <c r="I178">
+        <v>1.4999</v>
+      </c>
+      <c r="L178">
+        <v>0.203</v>
+      </c>
+      <c r="M178">
+        <v>0.8353</v>
+      </c>
+      <c r="N178">
+        <v>1.2739</v>
+      </c>
+      <c r="O178">
+        <v>1784998</v>
+      </c>
+      <c r="P178">
+        <v>5565536</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>56</v>
+      </c>
+      <c r="R178" t="s">
+        <v>57</v>
+      </c>
+      <c r="S178" t="s">
+        <v>58</v>
+      </c>
+      <c r="T178" t="s">
+        <v>59</v>
+      </c>
+      <c r="U178" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>33</v>
+      </c>
+      <c r="D179" t="s">
+        <v>54</v>
+      </c>
+      <c r="E179" t="s">
+        <v>55</v>
+      </c>
+      <c r="F179">
+        <v>0.255</v>
+      </c>
+      <c r="G179">
+        <v>0.98522972972973</v>
+      </c>
+      <c r="H179">
+        <v>21.43</v>
+      </c>
+      <c r="I179">
+        <v>1.4999</v>
+      </c>
+      <c r="L179">
+        <v>0.203</v>
+      </c>
+      <c r="M179">
+        <v>0.8353</v>
+      </c>
+      <c r="N179">
+        <v>1.2739</v>
+      </c>
+      <c r="O179">
+        <v>1784998</v>
+      </c>
+      <c r="P179">
+        <v>5565536</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>56</v>
+      </c>
+      <c r="R179" t="s">
+        <v>57</v>
+      </c>
+      <c r="S179" t="s">
+        <v>58</v>
+      </c>
+      <c r="T179" t="s">
+        <v>59</v>
+      </c>
+      <c r="U179" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>54</v>
+      </c>
+      <c r="E180" t="s">
+        <v>55</v>
+      </c>
+      <c r="F180">
+        <v>2.1</v>
+      </c>
+      <c r="G180">
+        <v>2.25837837837838</v>
+      </c>
+      <c r="H180">
+        <v>5.34</v>
+      </c>
+      <c r="I180">
+        <v>4.1295</v>
+      </c>
+      <c r="L180">
+        <v>2.14</v>
+      </c>
+      <c r="M180">
+        <v>2.8962</v>
+      </c>
+      <c r="N180">
+        <v>3.5544</v>
+      </c>
+      <c r="O180">
+        <v>1784998</v>
+      </c>
+      <c r="P180">
+        <v>5565536</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>56</v>
+      </c>
+      <c r="R180" t="s">
+        <v>57</v>
+      </c>
+      <c r="S180" t="s">
+        <v>58</v>
+      </c>
+      <c r="T180" t="s">
+        <v>59</v>
+      </c>
+      <c r="U180" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>35</v>
+      </c>
+      <c r="D181" t="s">
+        <v>54</v>
+      </c>
+      <c r="E181" t="s">
+        <v>55</v>
+      </c>
+      <c r="F181">
+        <v>2.1</v>
+      </c>
+      <c r="G181">
+        <v>2.25837837837838</v>
+      </c>
+      <c r="H181">
+        <v>5.34</v>
+      </c>
+      <c r="I181">
+        <v>4.1295</v>
+      </c>
+      <c r="L181">
+        <v>2.14</v>
+      </c>
+      <c r="M181">
+        <v>2.8962</v>
+      </c>
+      <c r="N181">
+        <v>3.5544</v>
+      </c>
+      <c r="O181">
+        <v>1784998</v>
+      </c>
+      <c r="P181">
+        <v>5565536</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>56</v>
+      </c>
+      <c r="R181" t="s">
+        <v>57</v>
+      </c>
+      <c r="S181" t="s">
+        <v>58</v>
+      </c>
+      <c r="T181" t="s">
+        <v>59</v>
+      </c>
+      <c r="U181" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>36</v>
+      </c>
+      <c r="D182" t="s">
+        <v>54</v>
+      </c>
+      <c r="E182" t="s">
+        <v>55</v>
+      </c>
+      <c r="F182">
+        <v>0.364</v>
+      </c>
+      <c r="G182">
+        <v>0.488513513513514</v>
+      </c>
+      <c r="H182">
+        <v>3.71</v>
+      </c>
+      <c r="I182">
+        <v>1.09</v>
+      </c>
+      <c r="L182">
+        <v>0.406</v>
+      </c>
+      <c r="M182">
+        <v>0.53557</v>
+      </c>
+      <c r="N182">
+        <v>0.69724</v>
+      </c>
+      <c r="O182">
+        <v>1784998</v>
+      </c>
+      <c r="P182">
+        <v>5565536</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>57</v>
+      </c>
+      <c r="S182" t="s">
+        <v>58</v>
+      </c>
+      <c r="T182" t="s">
+        <v>59</v>
+      </c>
+      <c r="U182" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" t="s">
+        <v>54</v>
+      </c>
+      <c r="E183" t="s">
+        <v>55</v>
+      </c>
+      <c r="F183">
+        <v>0.364</v>
+      </c>
+      <c r="G183">
+        <v>0.488513513513514</v>
+      </c>
+      <c r="H183">
+        <v>3.71</v>
+      </c>
+      <c r="I183">
+        <v>1.09</v>
+      </c>
+      <c r="L183">
+        <v>0.406</v>
+      </c>
+      <c r="M183">
+        <v>0.53557</v>
+      </c>
+      <c r="N183">
+        <v>0.69724</v>
+      </c>
+      <c r="O183">
+        <v>1784998</v>
+      </c>
+      <c r="P183">
+        <v>5565536</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>57</v>
+      </c>
+      <c r="S183" t="s">
+        <v>58</v>
+      </c>
+      <c r="T183" t="s">
+        <v>59</v>
+      </c>
+      <c r="U183" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
